--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1488,16 +1488,13 @@
     <t xml:space="preserve">Озон.Видео: ссылка</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Формы термозаплатка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1563383294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/</t>
+    <t xml:space="preserve">Термонаклейка Кот Сфинкс Звезды Молния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_stars_david_bow_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/</t>
   </si>
   <si>
     <t xml:space="preserve">Декор для одежды</t>
@@ -1525,33 +1522,6 @@
   </si>
   <si>
     <t xml:space="preserve">инструкция_dtf.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Сердечки термозаплатка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1563383107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_hearts_black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Звезды Черные термозаплатка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1563383242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_stars_black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Звезды Белые термозаплатка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1563382131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_stars_white</t>
   </si>
   <si>
     <t xml:space="preserve">термонаклейка А5</t>
@@ -1731,7 +1701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1764,10 +1734,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1796,7 +1762,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1891,8 +1857,8 @@
   </sheetPr>
   <dimension ref="A1:BS74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1904,7 +1870,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="66.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="83.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
@@ -1923,7 +1889,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="65.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="17.09"/>
@@ -1933,7 +1899,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="79.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="87.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.84"/>
@@ -2158,84 +2124,81 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Формы термозаплатка.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\", A2, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\Термонаклейка Кот Сфинкс Звезды Молния.pdf</v>
       </c>
       <c r="E2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C2,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set3\patch_a.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set4\",C2,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set4\cat_stars_david_bow_vert_1.tif</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Формы термозаплатка</v>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
       </c>
       <c r="O2" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Формы термозаплатка</v>
-      </c>
-      <c r="P2" s="8" t="str">
+        <v>Термонаклейка для одежды: Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="P2" s="8" t="n">
         <f aca="false">B2</f>
-        <v>OZN1563383294</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="8" t="n">
         <v>349</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="9" t="str">
+        <v>76</v>
+      </c>
+      <c r="S2" s="8" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
-        <v>Термонаклейка Формы термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+        <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" s="0" t="n">
         <v>21</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>18</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="10" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A5.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4;</v>
+        <v>77</v>
+      </c>
+      <c r="Y2" s="9" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Формы термозаплатка</v>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">Q2</f>
@@ -2245,781 +2208,367 @@
         <f aca="false">ROUND(AB2*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
         <v>10</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="12" t="n">
         <f aca="false">V2*10</f>
-        <v>180</v>
-      </c>
-      <c r="AJ2" s="14" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="12" t="n">
         <f aca="false">U2*10</f>
-        <v>210</v>
-      </c>
-      <c r="AL2" s="15" t="str">
+        <v>300</v>
+      </c>
+      <c r="AL2" s="14" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_1.jpg</v>
-      </c>
-      <c r="AM2" s="16" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</v>
-      </c>
-      <c r="AP2" s="15" t="str">
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg</v>
+      </c>
+      <c r="AM2" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP2" s="14" t="str">
         <f aca="false">J2</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="12"/>
+      <c r="AQ2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="11"/>
       <c r="AT2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
-        <v>Формы термозаплатка</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>82</v>
+        <v>Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Формы термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+        <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </v>
       </c>
-      <c r="AX2" s="13" t="str">
+      <c r="AX2" s="12" t="str">
         <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="BA2" s="13" t="str">
+      <c r="BA2" s="12" t="str">
         <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="16" t="str">
+      <c r="BC2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="15" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_color.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_color.jpg</v>
       </c>
       <c r="BM2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Формы термозаплатка</v>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="18" t="str">
+        <v>82</v>
+      </c>
+      <c r="BS2" s="17" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A3, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Сердечки термозаплатка.pdf</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C3,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set3\patch_hearts_black.tif</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <f aca="false">A3</f>
-        <v>Термонаклейка Сердечки термозаплатка</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A3, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Сердечки термозаплатка</v>
-      </c>
-      <c r="P3" s="8" t="str">
-        <f aca="false">B3</f>
-        <v>OZN1563383107</v>
-      </c>
-      <c r="Q3" s="8" t="n">
-        <v>349</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" s="9" t="str">
-        <f aca="false">A3&amp;Описание!B8</f>
-        <v>Термонаклейка Сердечки термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="10" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,"instruction_A5.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA3" s="0" t="str">
-        <f aca="false">A3</f>
-        <v>Термонаклейка Сердечки термозаплатка</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <f aca="false">Q3</f>
-        <v>349</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <f aca="false">ROUND(AB3*1.5,0)</f>
-        <v>524</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <f aca="false">W3</f>
-        <v>10</v>
-      </c>
-      <c r="AI3" s="13" t="n">
-        <f aca="false">V3*10</f>
-        <v>180</v>
-      </c>
-      <c r="AJ3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="13" t="n">
-        <f aca="false">U3*10</f>
-        <v>210</v>
-      </c>
-      <c r="AL3" s="15" t="str">
-        <f aca="false">CONCATENATE(H3,C3,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_1.jpg</v>
-      </c>
-      <c r="AM3" s="16" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H3, C3, "_2.jpg;"),CONCATENATE(H3, C3, "_3.jpg;"),CONCATENATE(H3, C3, "_4.jpg;"),CONCATENATE(H3, C3, "_5.jpg;"),CONCATENATE(H3, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</v>
-      </c>
-      <c r="AP3" s="15" t="str">
-        <f aca="false">J3</f>
-        <v>Amazing Pics</v>
-      </c>
-      <c r="AQ3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="0" t="str">
-        <f aca="false">SUBSTITUTE(A3,"Термонаклейка ","")</f>
-        <v>Сердечки термозаплатка</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV3" s="0" t="str">
-        <f aca="false">S3</f>
-        <v>Термонаклейка Сердечки термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</v>
-      </c>
-      <c r="AX3" s="13" t="str">
-        <f aca="false">X3</f>
-        <v>Россия</v>
-      </c>
-      <c r="BA3" s="13" t="str">
-        <f aca="false">R3</f>
-        <v>Полимерный материал</v>
-      </c>
-      <c r="BC3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="16" t="str">
-        <f aca="false">CONCATENATE(H3,C3,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_color.jpg</v>
-      </c>
-      <c r="BM3" s="0" t="str">
-        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A3,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сердечки термозаплатка</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS3" s="18" t="str">
-        <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="11"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="15"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="16"/>
+      <c r="AS3" s="11"/>
+      <c r="AU3" s="10"/>
+      <c r="AX3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="15"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A4, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Звезды Черные термозаплатка.pdf</v>
-      </c>
-      <c r="E4" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C4,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set3\patch_stars_black.tif</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <f aca="false">A4</f>
-        <v>Термонаклейка Звезды Черные термозаплатка</v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A4, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Звезды Черные термозаплатка</v>
-      </c>
-      <c r="P4" s="8" t="str">
-        <f aca="false">B4</f>
-        <v>OZN1563383242</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>349</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="9" t="str">
-        <f aca="false">A4&amp;Описание!B9</f>
-        <v>Термонаклейка Звезды Черные термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="10" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,"instruction_A5.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA4" s="0" t="str">
-        <f aca="false">A4</f>
-        <v>Термонаклейка Звезды Черные термозаплатка</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <f aca="false">Q4</f>
-        <v>349</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <f aca="false">ROUND(AB4*1.5,0)</f>
-        <v>524</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <f aca="false">W4</f>
-        <v>10</v>
-      </c>
-      <c r="AI4" s="13" t="n">
-        <f aca="false">V4*10</f>
-        <v>180</v>
-      </c>
-      <c r="AJ4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="13" t="n">
-        <f aca="false">U4*10</f>
-        <v>210</v>
-      </c>
-      <c r="AL4" s="15" t="str">
-        <f aca="false">CONCATENATE(H4,C4,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_1.jpg</v>
-      </c>
-      <c r="AM4" s="16" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H4, C4, "_2.jpg;"),CONCATENATE(H4, C4, "_3.jpg;"),CONCATENATE(H4, C4, "_4.jpg;"),CONCATENATE(H4, C4, "_5.jpg;"),CONCATENATE(H4, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</v>
-      </c>
-      <c r="AP4" s="15" t="str">
-        <f aca="false">J4</f>
-        <v>Amazing Pics</v>
-      </c>
-      <c r="AQ4" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="0" t="str">
-        <f aca="false">SUBSTITUTE(A4,"Термонаклейка ","")</f>
-        <v>Звезды Черные термозаплатка</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV4" s="0" t="str">
-        <f aca="false">S4</f>
-        <v>Термонаклейка Звезды Черные термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</v>
-      </c>
-      <c r="AX4" s="13" t="str">
-        <f aca="false">X4</f>
-        <v>Россия</v>
-      </c>
-      <c r="BA4" s="13" t="str">
-        <f aca="false">R4</f>
-        <v>Полимерный материал</v>
-      </c>
-      <c r="BC4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="16" t="str">
-        <f aca="false">CONCATENATE(H4,C4,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_color.jpg</v>
-      </c>
-      <c r="BM4" s="0" t="str">
-        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A4,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Звезды Черные термозаплатка</v>
-      </c>
-      <c r="BR4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS4" s="18" t="str">
-        <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="11"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="15"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="16"/>
+      <c r="AS4" s="11"/>
+      <c r="AU4" s="10"/>
+      <c r="AX4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="15"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A5, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Звезды Белые термозаплатка.pdf</v>
-      </c>
-      <c r="E5" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C5,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set3\patch_stars_white.tif</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <f aca="false">A5</f>
-        <v>Термонаклейка Звезды Белые термозаплатка</v>
-      </c>
-      <c r="O5" s="0" t="str">
-        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A5, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Звезды Белые термозаплатка</v>
-      </c>
-      <c r="P5" s="8" t="str">
-        <f aca="false">B5</f>
-        <v>OZN1563382131</v>
-      </c>
-      <c r="Q5" s="8" t="n">
-        <v>349</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="9" t="str">
-        <f aca="false">A5&amp;Описание!B10</f>
-        <v>Термонаклейка Звезды Белые термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="10" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,"instruction_A5.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4;</v>
-      </c>
-      <c r="AA5" s="0" t="str">
-        <f aca="false">A5</f>
-        <v>Термонаклейка Звезды Белые термозаплатка</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <f aca="false">Q5</f>
-        <v>349</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <f aca="false">ROUND(AB5*1.5,0)</f>
-        <v>524</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <f aca="false">W5</f>
-        <v>10</v>
-      </c>
-      <c r="AI5" s="13" t="n">
-        <f aca="false">V5*10</f>
-        <v>180</v>
-      </c>
-      <c r="AJ5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="13" t="n">
-        <f aca="false">U5*10</f>
-        <v>210</v>
-      </c>
-      <c r="AL5" s="15" t="str">
-        <f aca="false">CONCATENATE(H5,C5,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_1.jpg</v>
-      </c>
-      <c r="AM5" s="16" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H5, C5, "_2.jpg;"),CONCATENATE(H5, C5, "_3.jpg;"),CONCATENATE(H5, C5, "_4.jpg;"),CONCATENATE(H5, C5, "_5.jpg;"),CONCATENATE(H5, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</v>
-      </c>
-      <c r="AP5" s="15" t="str">
-        <f aca="false">J5</f>
-        <v>Amazing Pics</v>
-      </c>
-      <c r="AQ5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="0" t="str">
-        <f aca="false">SUBSTITUTE(A5,"Термонаклейка ","")</f>
-        <v>Звезды Белые термозаплатка</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV5" s="0" t="str">
-        <f aca="false">S5</f>
-        <v>Термонаклейка Звезды Белые термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</v>
-      </c>
-      <c r="AX5" s="13" t="str">
-        <f aca="false">X5</f>
-        <v>Россия</v>
-      </c>
-      <c r="BA5" s="13" t="str">
-        <f aca="false">R5</f>
-        <v>Полимерный материал</v>
-      </c>
-      <c r="BC5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="16" t="str">
-        <f aca="false">CONCATENATE(H5,C5,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_color.jpg</v>
-      </c>
-      <c r="BM5" s="0" t="str">
-        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A5,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Звезды Белые термозаплатка</v>
-      </c>
-      <c r="BR5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS5" s="18" t="str">
-        <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="11"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="15"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="16"/>
+      <c r="AS5" s="11"/>
+      <c r="AU5" s="10"/>
+      <c r="AX5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="15"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
+      <c r="A42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19"/>
+      <c r="A44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19"/>
+      <c r="A47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19"/>
+      <c r="A50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
+      <c r="A54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
+      <c r="A55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
+      <c r="A56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
+      <c r="A61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
+      <c r="A63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
+      <c r="A64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19"/>
+      <c r="A65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19"/>
+      <c r="A66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19"/>
+      <c r="A68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19"/>
+      <c r="A69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19"/>
+      <c r="A70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19"/>
+      <c r="A71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19"/>
+      <c r="A72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19"/>
+      <c r="A73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="16">
@@ -3089,10 +2638,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
-    <hyperlink ref="H4" r:id="rId4" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
-    <hyperlink ref="H5" r:id="rId5" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3101,7 +2647,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3126,394 +2672,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -664,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0">
+    <comment ref="BB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0">
+    <comment ref="BC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -839,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0">
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0">
+    <comment ref="BE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -889,7 +889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0">
+    <comment ref="BF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -914,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0">
+    <comment ref="BG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0">
+    <comment ref="BH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -964,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0">
+    <comment ref="BI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -991,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0">
+    <comment ref="BJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0">
+    <comment ref="BK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1041,7 +1041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0">
+    <comment ref="BL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0">
+    <comment ref="BM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1091,7 +1091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0">
+    <comment ref="BN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0">
+    <comment ref="BO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0">
+    <comment ref="BP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0">
+    <comment ref="BQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0">
+    <comment ref="BR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0">
+    <comment ref="BS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0">
+    <comment ref="BT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1320,7 +1320,7 @@
     <t xml:space="preserve">Наименование</t>
   </si>
   <si>
-    <t xml:space="preserve">Баркод товара</t>
+    <t xml:space="preserve">Баркоды</t>
   </si>
   <si>
     <t xml:space="preserve">Цена</t>
@@ -1347,7 +1347,10 @@
     <t xml:space="preserve">Страна производства</t>
   </si>
   <si>
-    <t xml:space="preserve">Медиафайлы</t>
+    <t xml:space="preserve">Фото</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Видео</t>
   </si>
   <si>
     <t xml:space="preserve">OZON</t>
@@ -1738,7 +1741,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1762,7 +1765,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1855,10 +1858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS74"/>
+  <dimension ref="A1:BT74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y4:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1909,7 +1912,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,22 +1988,22 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="5" t="s">
@@ -2009,7 +2012,7 @@
       <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="4" t="s">
@@ -2024,7 +2027,7 @@
       <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="5" t="s">
@@ -2033,13 +2036,13 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="5" t="s">
@@ -2048,10 +2051,10 @@
       <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AW1" s="5" t="s">
@@ -2123,13 +2126,16 @@
       <c r="BS1" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="BT1" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\", A2, ".pdf")</f>
@@ -2146,13 +2152,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2170,7 +2176,7 @@
         <v>349</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="8" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
@@ -2190,11 +2196,15 @@
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="9" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z2" s="7" t="str">
+        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2209,10 +2219,10 @@
         <v>524</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
@@ -2242,7 +2252,7 @@
         <v>Amazing Pics</v>
       </c>
       <c r="AQ2" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="0" t="str">
@@ -2250,7 +2260,7 @@
         <v>Кот Сфинкс Звезды Молния</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
@@ -2266,7 +2276,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="11"/>
       <c r="BE2" s="15" t="str">
@@ -2278,7 +2288,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS2" s="17" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
@@ -2659,7 +2669,7 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="Y4:Y5 B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2672,394 +2682,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="AA1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,32 +52,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AB1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,6 +103,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AD1" authorId="0">
       <text>
         <r>
@@ -124,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
+          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
         </r>
       </text>
     </comment>
@@ -149,7 +174,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
+          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
         </r>
       </text>
     </comment>
@@ -174,7 +199,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
+          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
         </r>
       </text>
     </comment>
@@ -199,7 +224,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
+          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
         </r>
       </text>
     </comment>
@@ -224,36 +249,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
+          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
         </r>
       </text>
     </comment>
     <comment ref="AI1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,6 +511,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="AP1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AQ1" authorId="0">
       <text>
         <r>
@@ -532,7 +557,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
+          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
         </r>
       </text>
     </comment>
@@ -557,36 +582,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
+          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
         </r>
       </text>
     </comment>
     <comment ref="AS1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,6 +614,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="AT1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AU1" authorId="0">
       <text>
         <r>
@@ -635,7 +660,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
+          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
         </r>
       </text>
     </comment>
@@ -660,7 +685,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
+          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
         </r>
       </text>
     </comment>
@@ -685,7 +710,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
+          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
         </r>
       </text>
     </comment>
@@ -710,7 +735,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -735,11 +760,61 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0">
+    <comment ref="BB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,32 +839,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BB1" authorId="0">
+    <comment ref="BC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -814,56 +889,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
-        </r>
-      </text>
-    </comment>
     <comment ref="BE1" authorId="0">
       <text>
         <r>
@@ -885,7 +910,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
         </r>
       </text>
     </comment>
@@ -910,7 +935,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -935,36 +960,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
         </r>
       </text>
     </comment>
     <comment ref="BH1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -991,6 +991,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="BI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BJ1" authorId="0">
       <text>
         <r>
@@ -1012,7 +1037,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
         </r>
       </text>
     </comment>
@@ -1037,7 +1062,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
         </r>
       </text>
     </comment>
@@ -1062,7 +1087,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
+          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
         </r>
       </text>
     </comment>
@@ -1087,7 +1112,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
+          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
         </r>
       </text>
     </comment>
@@ -1112,36 +1137,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
+          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
         </r>
       </text>
     </comment>
     <comment ref="BO1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1168,6 +1168,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="BP1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BQ1" authorId="0">
       <text>
         <r>
@@ -1189,7 +1214,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
+          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
         </r>
       </text>
     </comment>
@@ -1214,36 +1239,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
+          <t xml:space="preserve">Укажите название для видео </t>
         </r>
       </text>
     </comment>
     <comment ref="BS1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите название для видео </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1273,12 +1273,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
-  <si>
-    <t xml:space="preserve">Артикул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">штрихкод</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+  <si>
+    <t xml:space="preserve">Артикул продавца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баркоды</t>
   </si>
   <si>
     <t xml:space="preserve">Имя файла картинки для карточки</t>
@@ -1311,16 +1311,10 @@
     <t xml:space="preserve">Пол</t>
   </si>
   <si>
-    <t xml:space="preserve">Артикул продавца</t>
-  </si>
-  <si>
     <t xml:space="preserve">Артикул WB</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баркоды</t>
   </si>
   <si>
     <t xml:space="preserve">Цена</t>
@@ -1542,7 +1536,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1570,6 +1564,22 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -1591,13 +1601,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1610,6 +1613,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -1636,6 +1646,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9A41FE"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
@@ -1650,12 +1666,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF44A9E3"/>
         <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1704,44 +1714,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1769,15 +1783,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1793,7 +1807,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFDFDFD"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1806,11 +1820,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FF9A41FE"/>
+      <rgbColor rgb="FFFDFDFD"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1858,10 +1872,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT74"/>
+  <dimension ref="A1:BS74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y4:Y5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1881,261 +1895,258 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="61.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="56.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="65.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="79.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="87.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="43" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="56.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="45.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="65.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="45.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="79.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="87.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="42" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="57" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\", A2, ".pdf")</f>
@@ -2152,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2168,465 +2179,459 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="P2" s="8" t="n">
-        <f aca="false">B2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8" t="n">
+      <c r="P2" s="9" t="n">
         <v>349</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="8" t="str">
+      <c r="Q2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="9" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </v>
       </c>
+      <c r="S2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="W2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="X2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="9" t="str">
+      <c r="W2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="10" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"))</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
       </c>
-      <c r="Z2" s="7" t="str">
+      <c r="Y2" s="8" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4;")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
       </c>
-      <c r="AA2" s="0" t="str">
+      <c r="Z2" s="0" t="str">
         <f aca="false">A2</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
       </c>
+      <c r="AA2" s="0" t="n">
+        <f aca="false">P2</f>
+        <v>349</v>
+      </c>
       <c r="AB2" s="0" t="n">
-        <f aca="false">Q2</f>
-        <v>349</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <f aca="false">ROUND(AB2*1.5,0)</f>
+        <f aca="false">ROUND(AA2*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <f aca="false">W2</f>
+      <c r="AC2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <f aca="false">V2</f>
         <v>10</v>
       </c>
-      <c r="AI2" s="12" t="n">
-        <f aca="false">V2*10</f>
+      <c r="AH2" s="13" t="n">
+        <f aca="false">U2*10</f>
         <v>210</v>
       </c>
+      <c r="AI2" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="12" t="n">
-        <f aca="false">U2*10</f>
+        <f aca="false">T2*10</f>
         <v>300</v>
       </c>
-      <c r="AL2" s="14" t="str">
+      <c r="AK2" s="15" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg</v>
       </c>
-      <c r="AM2" s="15" t="str">
+      <c r="AL2" s="16" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
       </c>
-      <c r="AP2" s="14" t="str">
+      <c r="AO2" s="15" t="str">
         <f aca="false">J2</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="0" t="str">
+      <c r="AP2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
         <v>Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="AU2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV2" s="0" t="str">
-        <f aca="false">S2</f>
+      <c r="AT2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU2" s="0" t="str">
+        <f aca="false">R2</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </v>
       </c>
-      <c r="AX2" s="12" t="str">
-        <f aca="false">X2</f>
+      <c r="AW2" s="13" t="str">
+        <f aca="false">W2</f>
         <v>Россия</v>
       </c>
-      <c r="BA2" s="12" t="str">
-        <f aca="false">R2</f>
+      <c r="AZ2" s="13" t="str">
+        <f aca="false">Q2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="15" t="str">
+      <c r="BB2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="16" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_color.jpg</v>
       </c>
-      <c r="BM2" s="0" t="str">
+      <c r="BL2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="BR2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="17" t="str">
+      <c r="BQ2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR2" s="18" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="Y3" s="9"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="11"/>
-      <c r="AI3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="X3" s="10"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="12"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="16"/>
-      <c r="AS3" s="11"/>
-      <c r="AU3" s="10"/>
-      <c r="AX3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="15"/>
-      <c r="BR3" s="7"/>
-      <c r="BS3" s="17"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="16"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="17"/>
+      <c r="AR3" s="12"/>
+      <c r="AT3" s="11"/>
+      <c r="AW3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="16"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="Y4" s="9"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11"/>
-      <c r="AI4" s="12"/>
+      <c r="H4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="X4" s="10"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="12"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="14"/>
       <c r="AJ4" s="13"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="15"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="16"/>
-      <c r="AS4" s="11"/>
-      <c r="AU4" s="10"/>
-      <c r="AX4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="15"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="17"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="16"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="17"/>
+      <c r="AR4" s="12"/>
+      <c r="AT4" s="11"/>
+      <c r="AW4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="16"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="Y5" s="9"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="11"/>
-      <c r="AI5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="X5" s="10"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="12"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="14"/>
       <c r="AJ5" s="13"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="15"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="16"/>
-      <c r="AS5" s="11"/>
-      <c r="AU5" s="10"/>
-      <c r="AX5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="15"/>
-      <c r="BR5" s="7"/>
-      <c r="BS5" s="17"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="16"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="17"/>
+      <c r="AR5" s="12"/>
+      <c r="AT5" s="11"/>
+      <c r="AW5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="16"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
+      <c r="A42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18"/>
+      <c r="A47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18"/>
+      <c r="A50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18"/>
+      <c r="A54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18"/>
+      <c r="A55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18"/>
+      <c r="A56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18"/>
+      <c r="A70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
+      <c r="A73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ5" type="decimal">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AX2:AY5" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2:AD5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC2:AC5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2:AE5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2:AD5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2:AR5 BB2:BB5 BH2:BH5 BO2:BO5" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AQ2:AQ5 BA2:BA5 BG2:BG5 BN2:BN5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2:AJ5" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AI2:AI5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2:AS5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AR2:AR5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2:AU5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AT2:AT5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2:AX5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AW2:AW5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2:BA5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AZ2:AZ5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2:BC5" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BB2:BB5" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2:BD5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BC2:BC5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2:BF5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BE2:BE5" type="list">
+      <formula1>#name?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BH2:BH5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2639,10 +2644,6 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2:BK5" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2:BL5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2669,7 +2670,7 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="Y4:Y5 B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2682,394 +2683,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -664,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0">
+    <comment ref="BB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0">
+    <comment ref="BC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -839,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0">
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0">
+    <comment ref="BE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -889,7 +889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0">
+    <comment ref="BF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -914,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0">
+    <comment ref="BG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0">
+    <comment ref="BH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -964,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0">
+    <comment ref="BI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -991,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0">
+    <comment ref="BJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0">
+    <comment ref="BK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1041,7 +1041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0">
+    <comment ref="BL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0">
+    <comment ref="BM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1091,7 +1091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0">
+    <comment ref="BN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0">
+    <comment ref="BO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0">
+    <comment ref="BP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0">
+    <comment ref="BQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0">
+    <comment ref="BR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0">
+    <comment ref="BS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0">
+    <comment ref="BT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1273,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+  <si>
+    <t xml:space="preserve">Категория продавца</t>
+  </si>
   <si>
     <t xml:space="preserve">Артикул продавца</t>
   </si>
@@ -1485,6 +1488,9 @@
     <t xml:space="preserve">Озон.Видео: ссылка</t>
   </si>
   <si>
+    <t xml:space="preserve">Декор для одежды</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Кот Сфинкс Звезды Молния</t>
   </si>
   <si>
@@ -1492,9 +1498,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Декор для одежды</t>
   </si>
   <si>
     <t xml:space="preserve">Amazing Pics</t>
@@ -1536,7 +1539,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1561,6 +1564,14 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1714,7 +1725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1727,27 +1738,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1755,15 +1774,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1783,15 +1798,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1872,58 +1887,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS74"/>
+  <dimension ref="A1:BT74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="83.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="61.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="56.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="45.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="65.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="79.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="87.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="42" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="57" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1939,717 +1911,723 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AR1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="8" t="s">
         <v>45</v>
       </c>
       <c r="AV1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BD1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BE1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BK1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BL1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BM1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BO1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BP1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BR1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BS1" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="BT1" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\", A2, ".pdf")</f>
+      <c r="B2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\", B2, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\Термонаклейка Кот Сфинкс Звезды Молния.pdf</v>
       </c>
-      <c r="E2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set4\",C2,".tif")</f>
+      <c r="F2" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set4\",D2,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set4\cat_stars_david_bow_vert_1.tif</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>72</v>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <f aca="false">A2</f>
+        <v>71</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <f aca="false">B2</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="O2" s="0" t="str">
-        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
+      <c r="P2" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="Q2" s="11" t="n">
         <v>349</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="9" t="str">
-        <f aca="false">A2&amp;Описание!B7</f>
+      <c r="R2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="11" t="str">
+        <f aca="false">B2&amp;Описание!B7</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="10" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"))</f>
+      <c r="X2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I2,D2,"_1.jpg;"),CONCATENATE(I2,D2,"_2.jpg;"),CONCATENATE(I2,D2,"_3.jpg;"),CONCATENATE(I2,D2,"_4.jpg;"),CONCATENATE(I2,D2,"_5.jpg;"),CONCATENATE(I2,D2,"_6.jpg;"),CONCATENATE(I2,D2,"_7.jpg;"),CONCATENATE(I2,"instruction_A4.jpg;"))</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
       </c>
-      <c r="Y2" s="8" t="str">
-        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4;")</f>
+      <c r="Z2" s="10" t="str">
+        <f aca="false">CONCATENATE(I2,"Video_DTF.mp4;")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
       </c>
-      <c r="Z2" s="0" t="str">
-        <f aca="false">A2</f>
+      <c r="AA2" s="0" t="str">
+        <f aca="false">B2</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="AA2" s="0" t="n">
-        <f aca="false">P2</f>
+      <c r="AB2" s="0" t="n">
+        <f aca="false">Q2</f>
         <v>349</v>
       </c>
-      <c r="AB2" s="0" t="n">
-        <f aca="false">ROUND(AA2*1.5,0)</f>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">ROUND(AB2*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AC2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="0" t="n">
-        <f aca="false">V2</f>
+      <c r="AE2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <f aca="false">W2</f>
         <v>10</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AI2" s="14" t="n">
+        <f aca="false">V2*10</f>
+        <v>210</v>
+      </c>
+      <c r="AJ2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="14" t="n">
         <f aca="false">U2*10</f>
-        <v>210</v>
-      </c>
-      <c r="AI2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="13" t="n">
-        <f aca="false">T2*10</f>
         <v>300</v>
       </c>
-      <c r="AK2" s="15" t="str">
-        <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
+      <c r="AL2" s="16" t="str">
+        <f aca="false">CONCATENATE(I2,D2,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg</v>
       </c>
-      <c r="AL2" s="16" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
+      <c r="AM2" s="17" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I2, D2, "_2.jpg;"),CONCATENATE(I2, D2, "_3.jpg;"),CONCATENATE(I2, D2, "_4.jpg;"),CONCATENATE(I2, D2, "_5.jpg;"),CONCATENATE(I2, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
       </c>
-      <c r="AO2" s="15" t="str">
-        <f aca="false">J2</f>
+      <c r="AP2" s="16" t="str">
+        <f aca="false">K2</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AP2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="0" t="str">
-        <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
+      <c r="AQ2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B2,"Термонаклейка ","")</f>
         <v>Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="AT2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="0" t="str">
-        <f aca="false">R2</f>
+      <c r="AU2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="0" t="str">
+        <f aca="false">S2</f>
         <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </v>
       </c>
-      <c r="AW2" s="13" t="str">
-        <f aca="false">W2</f>
+      <c r="AX2" s="14" t="str">
+        <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="AZ2" s="13" t="str">
-        <f aca="false">Q2</f>
+      <c r="BA2" s="14" t="str">
+        <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BB2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="16" t="str">
-        <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="17" t="str">
+        <f aca="false">CONCATENATE(I2,D2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_color.jpg</v>
       </c>
-      <c r="BL2" s="0" t="str">
-        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
+      <c r="BM2" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B2,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</v>
       </c>
-      <c r="BQ2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BR2" s="18" t="str">
-        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
+      <c r="BR2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS2" s="19" t="str">
+        <f aca="false">CONCATENATE(I2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="X3" s="10"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="12"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="16"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="17"/>
-      <c r="AR3" s="12"/>
-      <c r="AT3" s="11"/>
-      <c r="AW3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="16"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="18"/>
+      <c r="H3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="X3" s="12"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="9"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="17"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="18"/>
+      <c r="AR3" s="9"/>
+      <c r="AT3" s="13"/>
+      <c r="AW3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="17"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="X4" s="10"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="12"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="16"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="17"/>
-      <c r="AR4" s="12"/>
-      <c r="AT4" s="11"/>
-      <c r="AW4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="16"/>
-      <c r="BQ4" s="8"/>
-      <c r="BR4" s="18"/>
+      <c r="H4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="9"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="17"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="18"/>
+      <c r="AR4" s="9"/>
+      <c r="AT4" s="13"/>
+      <c r="AW4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="17"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="X5" s="10"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="12"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="16"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="17"/>
-      <c r="AR5" s="12"/>
-      <c r="AT5" s="11"/>
-      <c r="AW5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="16"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="18"/>
+      <c r="H5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="X5" s="12"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="9"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="17"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="18"/>
+      <c r="AR5" s="9"/>
+      <c r="AT5" s="13"/>
+      <c r="AW5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="17"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AX2:AY5" type="decimal">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ2 AX3:AY5" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC2:AC5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2 AC3:AC5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2:AD5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2 AD3:AD5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AQ2:AQ5 BA2:BA5 BG2:BG5 BN2:BN5" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2 BB2 BH2 BO2 AQ3:AQ5 BA3:BA5 BG3:BG5 BN3:BN5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AI2:AI5" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2 AI3:AI5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AR2:AR5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2 AR3:AR5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AT2:AT5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2 AT3:AT5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AW2:AW5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2 AW3:AW5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AZ2:AZ5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2 AZ3:AZ5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BB2:BB5" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2 BB3:BB5" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BC2:BC5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2 BC3:BC5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BE2:BE5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2 BE3:BE5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BH2:BH5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2 BH3:BH5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2:BI5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2 BI3:BI5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2:BJ5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2 BJ3:BJ5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2:BK5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2 BK3:BK5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2683,394 +2661,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
   <si>
     <t xml:space="preserve">Категория продавца</t>
   </si>
@@ -1491,10 +1491,16 @@
     <t xml:space="preserve">Декор для одежды</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Кот Сфинкс Звезды Молния</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat_stars_david_bow_vert_1</t>
+    <t xml:space="preserve">Термонаклейка Бабочка синяя Blue butterfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue_butterfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Бабочка синяя Blue butterfly.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\maxim\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\blue_butterfly.tif</t>
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/</t>
@@ -1527,7 +1533,7 @@
     <t xml:space="preserve">термонаклейка А5</t>
   </si>
   <si>
-    <t xml:space="preserve"> - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+    <t xml:space="preserve"> - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </t>
   </si>
 </sst>
@@ -1612,6 +1618,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1624,13 +1637,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -1648,7 +1654,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,7 +1682,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF44A9E3"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1725,7 +1737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1766,7 +1778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1774,8 +1786,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1798,15 +1814,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1870,7 +1886,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1890,7 +1906,7 @@
   <dimension ref="A1:BT74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2120,19 +2136,17 @@
       <c r="A2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\", B2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set4\Термонаклейка Кот Сфинкс Звезды Молния.pdf</v>
-      </c>
-      <c r="F2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set4\",D2,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set4\cat_stars_david_bow_vert_1.tif</v>
+      <c r="E2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
@@ -2141,31 +2155,31 @@
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>71</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N2" s="0" t="str">
         <f aca="false">B2</f>
-        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
+        <v>Термонаклейка Бабочка синяя Blue butterfly</v>
       </c>
       <c r="P2" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B2, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Кот Сфинкс Звезды Молния</v>
+        <v>Термонаклейка для одежды: Бабочка синяя Blue butterfly</v>
       </c>
       <c r="Q2" s="11" t="n">
         <v>349</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" s="11" t="str">
         <f aca="false">B2&amp;Описание!B7</f>
-        <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+        <v>Термонаклейка Бабочка синяя Blue butterfly - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
       <c r="T2" s="0" t="n">
@@ -2181,19 +2195,19 @@
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y2" s="12" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(I2,D2,"_1.jpg;"),CONCATENATE(I2,D2,"_2.jpg;"),CONCATENATE(I2,D2,"_3.jpg;"),CONCATENATE(I2,D2,"_4.jpg;"),CONCATENATE(I2,D2,"_5.jpg;"),CONCATENATE(I2,D2,"_6.jpg;"),CONCATENATE(I2,D2,"_7.jpg;"),CONCATENATE(I2,"instruction_A4.jpg;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
-      </c>
-      <c r="Z2" s="10" t="str">
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z2" s="13" t="str">
         <f aca="false">CONCATENATE(I2,"Video_DTF.mp4;")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">B2</f>
-        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
+        <v>Термонаклейка Бабочка синяя Blue butterfly</v>
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">Q2</f>
@@ -2203,365 +2217,365 @@
         <f aca="false">ROUND(AB2*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD2" s="13" t="s">
-        <v>78</v>
+      <c r="AD2" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="0" t="n">
         <f aca="false">W2</f>
         <v>10</v>
       </c>
-      <c r="AI2" s="14" t="n">
+      <c r="AJ2" s="15" t="n">
         <f aca="false">V2*10</f>
         <v>210</v>
       </c>
-      <c r="AJ2" s="15" t="n">
+      <c r="AK2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="14" t="n">
+      <c r="AL2" s="15" t="n">
         <f aca="false">U2*10</f>
         <v>300</v>
       </c>
-      <c r="AL2" s="16" t="str">
+      <c r="AM2" s="17" t="str">
         <f aca="false">CONCATENATE(I2,D2,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg</v>
-      </c>
-      <c r="AM2" s="17" t="str">
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_1.jpg</v>
+      </c>
+      <c r="AN2" s="18" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(I2, D2, "_2.jpg;"),CONCATENATE(I2, D2, "_3.jpg;"),CONCATENATE(I2, D2, "_4.jpg;"),CONCATENATE(I2, D2, "_5.jpg;"),CONCATENATE(I2, "instruction_A4.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
-      </c>
-      <c r="AP2" s="16" t="str">
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AQ2" s="17" t="str">
         <f aca="false">K2</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AQ2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="0" t="str">
+      <c r="AR2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="0" t="str">
         <f aca="false">SUBSTITUTE(B2,"Термонаклейка ","")</f>
-        <v>Кот Сфинкс Звезды Молния</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV2" s="0" t="str">
+        <v>Бабочка синяя Blue butterfly</v>
+      </c>
+      <c r="AV2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+        <v>Термонаклейка Бабочка синяя Blue butterfly - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AX2" s="14" t="str">
+      <c r="AY2" s="15" t="str">
         <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="BA2" s="14" t="str">
+      <c r="BB2" s="15" t="str">
         <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="17" t="str">
+      <c r="BD2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="18" t="str">
         <f aca="false">CONCATENATE(I2,D2,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_color.jpg</v>
-      </c>
-      <c r="BM2" s="0" t="str">
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_color.jpg</v>
+      </c>
+      <c r="BN2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS2" s="19" t="str">
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бабочка синяя Blue butterfly</v>
+      </c>
+      <c r="BS2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" s="20" t="str">
         <f aca="false">CONCATENATE(I2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H3" s="10"/>
+      <c r="H3" s="13"/>
       <c r="P3" s="11"/>
       <c r="R3" s="11"/>
       <c r="X3" s="12"/>
-      <c r="AC3" s="13"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="9"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="18"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="18"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="19"/>
       <c r="AR3" s="9"/>
-      <c r="AT3" s="13"/>
-      <c r="AW3" s="14"/>
-      <c r="AZ3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AW3" s="15"/>
+      <c r="AZ3" s="15"/>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
-      <c r="BD3" s="17"/>
-      <c r="BQ3" s="10"/>
-      <c r="BR3" s="19"/>
+      <c r="BD3" s="18"/>
+      <c r="BQ3" s="13"/>
+      <c r="BR3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H4" s="10"/>
+      <c r="H4" s="13"/>
       <c r="P4" s="11"/>
       <c r="R4" s="11"/>
       <c r="X4" s="12"/>
-      <c r="AC4" s="13"/>
+      <c r="AC4" s="14"/>
       <c r="AD4" s="9"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="17"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="18"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="18"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="19"/>
       <c r="AR4" s="9"/>
-      <c r="AT4" s="13"/>
-      <c r="AW4" s="14"/>
-      <c r="AZ4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AW4" s="15"/>
+      <c r="AZ4" s="15"/>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
-      <c r="BD4" s="17"/>
-      <c r="BQ4" s="10"/>
-      <c r="BR4" s="19"/>
+      <c r="BD4" s="18"/>
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="10"/>
+      <c r="H5" s="13"/>
       <c r="P5" s="11"/>
       <c r="R5" s="11"/>
       <c r="X5" s="12"/>
-      <c r="AC5" s="13"/>
+      <c r="AC5" s="14"/>
       <c r="AD5" s="9"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="17"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="18"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="18"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="19"/>
       <c r="AR5" s="9"/>
-      <c r="AT5" s="13"/>
-      <c r="AW5" s="14"/>
-      <c r="AZ5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AW5" s="15"/>
+      <c r="AZ5" s="15"/>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9"/>
-      <c r="BD5" s="17"/>
-      <c r="BQ5" s="10"/>
-      <c r="BR5" s="19"/>
+      <c r="BD5" s="18"/>
+      <c r="BQ5" s="13"/>
+      <c r="BR5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ2 AX3:AY5" type="decimal">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AZ2:BA2 AX3:AY5" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2573,55 +2587,55 @@
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2 BB2 BH2 BO2 AQ3:AQ5 BA3:BA5 BG3:BG5 BN3:BN5" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AS2 BC2 BI2 BP2 AQ3:AQ5 BA3:BA5 BG3:BG5 BN3:BN5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2 AI3:AI5" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AK2 AI3:AI5" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2 AR3:AR5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AT2 AR3:AR5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2 AT3:AT5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AV2 AT3:AT5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2 AW3:AW5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AY2 AW3:AW5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2 AZ3:AZ5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BB2 AZ3:AZ5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2 BB3:BB5" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BD2 BB3:BB5" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2 BC3:BC5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BE2 BC3:BC5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2 BE3:BE5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BG2 BE3:BE5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2 BH3:BH5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2 BH3:BH5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2 BI3:BI5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2 BI3:BI5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2 BJ3:BJ5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2 BJ3:BJ5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2 BK3:BK5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BM2 BK3:BK5" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2645,443 +2659,1036 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A2:B175"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="27.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="113.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Описание" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -73,7 +76,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
+          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
+Если на товар есть скидка, укажите цену после ее применения. </t>
         </r>
       </text>
     </comment>
@@ -98,8 +102,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
-Если на товар есть скидка, укажите цену после ее применения. </t>
+          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
         </r>
       </text>
     </comment>
@@ -124,7 +127,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
+          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
+Если на товар есть скидка, укажите цену после ее применения. </t>
         </r>
       </text>
     </comment>
@@ -149,7 +153,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
+          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
         </r>
       </text>
     </comment>
@@ -174,7 +178,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
+          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
         </r>
       </text>
     </comment>
@@ -199,7 +203,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
+          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
         </r>
       </text>
     </comment>
@@ -224,7 +228,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
+          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
         </r>
       </text>
     </comment>
@@ -249,7 +253,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
+          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
         </r>
       </text>
     </comment>
@@ -274,6 +278,31 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
 Изделие неправильной формы измерьте от одного края до другого.
 Комплект из нескольких позиций сложите вместе стопкой.
@@ -281,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,31 +537,6 @@
           </rPr>
           <t xml:space="preserve">Название файла с изображением товара.
  Запрещенные символы: "/" и "_". </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
         </r>
       </text>
     </comment>
@@ -557,7 +561,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
+          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
         </r>
       </text>
     </comment>
@@ -582,7 +586,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
+          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
         </r>
       </text>
     </comment>
@@ -607,6 +611,31 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Укажите базовый или доминирующий цвет вашего товара, выбрав значение из списка. Если точного соответствия вы не находите, используйте ближайшие похожие цвета. 
 Сложные цвета нужно описывать перечислением простых цветов. Например, если вы описываете шмеля, и у него, очевидно, преобладают чёрный, жёлтый и белый цвета, то укажите их все простым перечислением. 
 Помните, что атрибут Цвет товара - это базовый цвет, все любые другие цвета вы можете прописать в атрибуте Название цвета.
@@ -614,31 +643,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AV1" authorId="0">
       <text>
         <r>
@@ -660,7 +664,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
+          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
         </r>
       </text>
     </comment>
@@ -685,7 +689,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
+          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
         </r>
       </text>
     </comment>
@@ -710,7 +714,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
+          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
         </r>
       </text>
     </comment>
@@ -735,7 +739,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
         </r>
       </text>
     </comment>
@@ -760,7 +764,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -810,7 +814,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
         </r>
       </text>
     </comment>
@@ -835,7 +839,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -860,7 +864,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
         </r>
       </text>
     </comment>
@@ -885,7 +889,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
         </r>
       </text>
     </comment>
@@ -910,7 +914,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -935,7 +939,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
         </r>
       </text>
     </comment>
@@ -960,7 +964,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
         </r>
       </text>
     </comment>
@@ -985,9 +989,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Сколько заводских упаковок вы собрали вместе и теперь продаете, как одно SKU.
-Если ваш товар - это 24 банки детского пюре, запаянных в 1 упаковку на заводе, и в таком же виде этот товар может продаваться в других магазинах - значение атрибута будет 1.
-Если ваш товар - это 3 лампочки, запаянные или связанные в одну упаковку вами, и вы решили их объединить самостоятельно (а завод выпускает лампочки в упаковках, например, 1 шт. и 10 шт.) - значение атрибута будет 3. </t>
+          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
         </r>
       </text>
     </comment>
@@ -1012,7 +1014,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+          <t xml:space="preserve">Сколько заводских упаковок вы собрали вместе и теперь продаете, как одно SKU.
+Если ваш товар - это 24 банки детского пюре, запаянных в 1 упаковку на заводе, и в таком же виде этот товар может продаваться в других магазинах - значение атрибута будет 1.
+Если ваш товар - это 3 лампочки, запаянные или связанные в одну упаковку вами, и вы решили их объединить самостоятельно (а завод выпускает лампочки в упаковках, например, 1 шт. и 10 шт.) - значение атрибута будет 3. </t>
         </r>
       </text>
     </comment>
@@ -1037,7 +1041,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
         </r>
       </text>
     </comment>
@@ -1062,7 +1066,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
+          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
         </r>
       </text>
     </comment>
@@ -1087,7 +1091,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
+          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
         </r>
       </text>
     </comment>
@@ -1112,7 +1116,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
+          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
         </r>
       </text>
     </comment>
@@ -1137,7 +1141,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
+          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
         </r>
       </text>
     </comment>
@@ -1162,9 +1166,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Данное поле предназначено для заполнения только продавцам из Турции.
-Перейдите на сайт https://uygulama.gtb.gov.tr/Tara/, укажите ваш товар - в ответе будет указан код, который нужно вставить в данное поле. Код состоит из набора цифр длиной от 6 до 12 знаков.
-Подробнее про HS-коды и для чего они нужны можно узнать здесь https://docs.ozon.ru/global/fulfillment/rfbs/logistic-settings/selling-from-turkey/?country=TR </t>
+          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
         </r>
       </text>
     </comment>
@@ -1189,7 +1191,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
+          <t xml:space="preserve">Данное поле предназначено для заполнения только продавцам из Турции.
+Перейдите на сайт https://uygulama.gtb.gov.tr/Tara/, укажите ваш товар - в ответе будет указан код, который нужно вставить в данное поле. Код состоит из набора цифр длиной от 6 до 12 знаков.
+Подробнее про HS-коды и для чего они нужны можно узнать здесь https://docs.ozon.ru/global/fulfillment/rfbs/logistic-settings/selling-from-turkey/?country=TR </t>
         </r>
       </text>
     </comment>
@@ -1214,7 +1218,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
+          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
         </r>
       </text>
     </comment>
@@ -1239,11 +1243,36 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Укажите название для видео </t>
+          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
         </r>
       </text>
     </comment>
     <comment ref="BT1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите название для видео </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="139">
   <si>
     <t xml:space="preserve">Категория продавца</t>
   </si>
@@ -1353,6 +1382,9 @@
     <t xml:space="preserve">OZON</t>
   </si>
   <si>
+    <t xml:space="preserve">Артикул</t>
+  </si>
+  <si>
     <t xml:space="preserve">Название товара</t>
   </si>
   <si>
@@ -1528,6 +1560,236 @@
   </si>
   <si>
     <t xml:space="preserve">инструкция_dtf.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бабочка зеленная листья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butterfly_green_leaves_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мотылек Луна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butterfly_moon_gold1_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черный Кот в цветах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_head_d1_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот Сфинкс Звезды Молния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1725971725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_stars_david_bow_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот цветы внутри</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Белый Кот в цветах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat1_f1_versB_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лотос розовый золотистый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_pink1_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Синий Акварель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowers_abc1_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка О</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">рхидея</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Цветы Розовые</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">flowers_pinks12_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девочка и Лиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_and_fox1_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Венок Луна Акварель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_flowers_planet_venok_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Волосы Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_head_butterflys_de1_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Природа Силует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_head_forest_green_vert1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Маска Доберман Собака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_headwolf_ad_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Аниме Япония Красное Солнце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_redsun_japan1_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Силует Закат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_sunset_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Силует Акварель Лес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_whiteblack_forest_vert_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце Букет Цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart_flowers_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце Море Силует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart_ocean1_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Белая Лошадь Цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horse_white1_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка М</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">орская Ракушка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Силует</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">seashell_a1_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">одсолнухи Цветы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sunflower_v1_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепаха Цветы на панцире</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtle_t1_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка и 2 ласточки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two_birds_face_girl_eyes1_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кит в Цветах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whale2_vert1</t>
   </si>
   <si>
     <t xml:space="preserve">термонаклейка А5</t>
@@ -1737,7 +1999,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1826,6 +2088,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1898,23 +2168,42 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="username"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT74"/>
+  <dimension ref="A1:BU74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="19.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1996,19 +2285,19 @@
       <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AG1" s="8" t="s">
@@ -2017,7 +2306,7 @@
       <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" s="7" t="s">
@@ -2032,7 +2321,7 @@
       <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AO1" s="8" t="s">
@@ -2041,13 +2330,13 @@
       <c r="AP1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AR1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AT1" s="8" t="s">
@@ -2056,10 +2345,10 @@
       <c r="AU1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AX1" s="8" t="s">
@@ -2131,37 +2420,40 @@
       <c r="BT1" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BU1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="0" t="str">
         <f aca="false">B2</f>
@@ -2175,7 +2467,7 @@
         <v>349</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" s="11" t="str">
         <f aca="false">B2&amp;Описание!B7</f>
@@ -2195,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="12" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(I2,D2,"_1.jpg;"),CONCATENATE(I2,D2,"_2.jpg;"),CONCATENATE(I2,D2,"_3.jpg;"),CONCATENATE(I2,D2,"_4.jpg;"),CONCATENATE(I2,D2,"_5.jpg;"),CONCATENATE(I2,D2,"_6.jpg;"),CONCATENATE(I2,D2,"_7.jpg;"),CONCATENATE(I2,"instruction_A4.jpg;"))</f>
@@ -2205,443 +2497,4510 @@
         <f aca="false">CONCATENATE(I2,"Video_DTF.mp4;")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
       </c>
-      <c r="AA2" s="0" t="str">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="0" t="str">
         <f aca="false">B2</f>
         <v>Термонаклейка Бабочка синяя Blue butterfly</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="str">
+        <f aca="false">B2</f>
+        <v>Термонаклейка Бабочка синяя Blue butterfly</v>
+      </c>
+      <c r="AD2" s="0" t="n">
         <f aca="false">Q2</f>
         <v>349</v>
       </c>
-      <c r="AC2" s="0" t="n">
-        <f aca="false">ROUND(AB2*1.5,0)</f>
+      <c r="AE2" s="0" t="n">
+        <f aca="false">ROUND(AD2*1.5,0)</f>
         <v>524</v>
       </c>
-      <c r="AD2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AG2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
         <f aca="false">W2</f>
         <v>10</v>
       </c>
-      <c r="AJ2" s="15" t="n">
+      <c r="AK2" s="15" t="n">
         <f aca="false">V2*10</f>
         <v>210</v>
       </c>
-      <c r="AK2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="15" t="n">
+      <c r="AL2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="15" t="n">
         <f aca="false">U2*10</f>
         <v>300</v>
       </c>
-      <c r="AM2" s="17" t="str">
+      <c r="AN2" s="17" t="str">
         <f aca="false">CONCATENATE(I2,D2,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_1.jpg</v>
       </c>
-      <c r="AN2" s="18" t="str">
+      <c r="AO2" s="18" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(I2, D2, "_2.jpg;"),CONCATENATE(I2, D2, "_3.jpg;"),CONCATENATE(I2, D2, "_4.jpg;"),CONCATENATE(I2, D2, "_5.jpg;"),CONCATENATE(I2, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
       </c>
-      <c r="AQ2" s="17" t="str">
+      <c r="AR2" s="17" t="str">
         <f aca="false">K2</f>
         <v>Amazing Pics</v>
       </c>
-      <c r="AR2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="0" t="str">
+      <c r="AS2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="0" t="str">
         <f aca="false">SUBSTITUTE(B2,"Термонаклейка ","")</f>
         <v>Бабочка синяя Blue butterfly</v>
       </c>
-      <c r="AV2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" s="0" t="str">
+      <c r="AW2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="0" t="str">
         <f aca="false">S2</f>
         <v>Термонаклейка Бабочка синяя Blue butterfly - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
-      <c r="AY2" s="15" t="str">
+      <c r="AZ2" s="15" t="str">
         <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="BB2" s="15" t="str">
+      <c r="BC2" s="15" t="str">
         <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BD2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="18" t="str">
+      <c r="BE2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="18" t="str">
         <f aca="false">CONCATENATE(I2,D2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/blue_butterfly_color.jpg</v>
       </c>
-      <c r="BN2" s="0" t="str">
+      <c r="BO2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B2,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бабочка синяя Blue butterfly</v>
       </c>
-      <c r="BS2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT2" s="20" t="str">
+      <c r="BT2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU2" s="20" t="str">
         <f aca="false">CONCATENATE(I2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H3" s="13"/>
-      <c r="P3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="X3" s="12"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="9"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="18"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="19"/>
-      <c r="AR3" s="9"/>
-      <c r="AT3" s="14"/>
-      <c r="AW3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="18"/>
-      <c r="BQ3" s="13"/>
-      <c r="BR3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H4" s="13"/>
-      <c r="P4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="9"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="18"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="19"/>
-      <c r="AR4" s="9"/>
-      <c r="AT4" s="14"/>
-      <c r="AW4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="18"/>
-      <c r="BQ4" s="13"/>
-      <c r="BR4" s="20"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="13"/>
-      <c r="P5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="X5" s="12"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="9"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="18"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="19"/>
-      <c r="AR5" s="9"/>
-      <c r="AT5" s="14"/>
-      <c r="AW5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="18"/>
-      <c r="BQ5" s="13"/>
-      <c r="BR5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B3, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Бабочка зеленная листья.pdf</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D3,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\butterfly_green_leaves_vert_1.tif</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">B3</f>
+        <v>Термонаклейка Бабочка зеленная листья</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B3, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Бабочка зеленная листья</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="11" t="str">
+        <f aca="false">B3&amp;Описание!B8</f>
+        <v>Термонаклейка Бабочка зеленная листья - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I3,D3,"_1.jpg;"),CONCATENATE(I3,D3,"_2.jpg;"),CONCATENATE(I3,D3,"_3.jpg;"),CONCATENATE(I3,D3,"_4.jpg;"),CONCATENATE(I3,D3,"_5.jpg;"),CONCATENATE(I3,D3,"_6.jpg;"),CONCATENATE(I3,D3,"_7.jpg;"),CONCATENATE(I3,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z3" s="13" t="str">
+        <f aca="false">CONCATENATE(I3,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="0" t="str">
+        <f aca="false">B3</f>
+        <v>Термонаклейка Бабочка зеленная листья</v>
+      </c>
+      <c r="AC3" s="0" t="str">
+        <f aca="false">B3</f>
+        <v>Термонаклейка Бабочка зеленная листья</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <f aca="false">Q3</f>
+        <v>349</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <f aca="false">ROUND(AD3*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <f aca="false">W3</f>
+        <v>10</v>
+      </c>
+      <c r="AK3" s="15" t="n">
+        <f aca="false">V3*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="15" t="n">
+        <f aca="false">U3*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN3" s="17" t="str">
+        <f aca="false">CONCATENATE(I3,D3,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_1.jpg</v>
+      </c>
+      <c r="AO3" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I3, D3, "_2.jpg;"),CONCATENATE(I3, D3, "_3.jpg;"),CONCATENATE(I3, D3, "_4.jpg;"),CONCATENATE(I3, D3, "_5.jpg;"),CONCATENATE(I3, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR3" s="17" t="str">
+        <f aca="false">K3</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B3,"Термонаклейка ","")</f>
+        <v>Бабочка зеленная листья</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" s="0" t="str">
+        <f aca="false">S3</f>
+        <v>Термонаклейка Бабочка зеленная листья - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ3" s="15" t="str">
+        <f aca="false">X3</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC3" s="15" t="str">
+        <f aca="false">R3</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="18" t="str">
+        <f aca="false">CONCATENATE(I3,D3,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_green_leaves_vert_1_color.jpg</v>
+      </c>
+      <c r="BO3" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B3,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бабочка зеленная листья</v>
+      </c>
+      <c r="BT3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU3" s="20" t="str">
+        <f aca="false">CONCATENATE(I3,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B4, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мотылек Луна.pdf</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D4,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\butterfly_moon_gold1_vert_1.tif</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">B4</f>
+        <v>Термонаклейка Мотылек Луна</v>
+      </c>
+      <c r="P4" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B4, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Мотылек Луна</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="11" t="str">
+        <f aca="false">B4&amp;Описание!B9</f>
+        <v>Термонаклейка Мотылек Луна - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I4,D4,"_1.jpg;"),CONCATENATE(I4,D4,"_2.jpg;"),CONCATENATE(I4,D4,"_3.jpg;"),CONCATENATE(I4,D4,"_4.jpg;"),CONCATENATE(I4,D4,"_5.jpg;"),CONCATENATE(I4,D4,"_6.jpg;"),CONCATENATE(I4,D4,"_7.jpg;"),CONCATENATE(I4,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z4" s="13" t="str">
+        <f aca="false">CONCATENATE(I4,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="0" t="str">
+        <f aca="false">B4</f>
+        <v>Термонаклейка Мотылек Луна</v>
+      </c>
+      <c r="AC4" s="0" t="str">
+        <f aca="false">B4</f>
+        <v>Термонаклейка Мотылек Луна</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">Q4</f>
+        <v>349</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <f aca="false">ROUND(AD4*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <f aca="false">W4</f>
+        <v>10</v>
+      </c>
+      <c r="AK4" s="15" t="n">
+        <f aca="false">V4*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="15" t="n">
+        <f aca="false">U4*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN4" s="17" t="str">
+        <f aca="false">CONCATENATE(I4,D4,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_1.jpg</v>
+      </c>
+      <c r="AO4" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I4, D4, "_2.jpg;"),CONCATENATE(I4, D4, "_3.jpg;"),CONCATENATE(I4, D4, "_4.jpg;"),CONCATENATE(I4, D4, "_5.jpg;"),CONCATENATE(I4, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR4" s="17" t="str">
+        <f aca="false">K4</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B4,"Термонаклейка ","")</f>
+        <v>Мотылек Луна</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="0" t="str">
+        <f aca="false">S4</f>
+        <v>Термонаклейка Мотылек Луна - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ4" s="15" t="str">
+        <f aca="false">X4</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC4" s="15" t="str">
+        <f aca="false">R4</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="18" t="str">
+        <f aca="false">CONCATENATE(I4,D4,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/butterfly_moon_gold1_vert_1_color.jpg</v>
+      </c>
+      <c r="BO4" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B4,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мотылек Луна</v>
+      </c>
+      <c r="BT4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU4" s="20" t="str">
+        <f aca="false">CONCATENATE(I4,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B5, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Черный Кот в цветах.pdf</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D5,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\cat_head_d1_vert.tif</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">B5</f>
+        <v>Термонаклейка Черный Кот в цветах</v>
+      </c>
+      <c r="P5" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B5, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Черный Кот в цветах</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f aca="false">B5&amp;Описание!B10</f>
+        <v>Термонаклейка Черный Кот в цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I5,D5,"_1.jpg;"),CONCATENATE(I5,D5,"_2.jpg;"),CONCATENATE(I5,D5,"_3.jpg;"),CONCATENATE(I5,D5,"_4.jpg;"),CONCATENATE(I5,D5,"_5.jpg;"),CONCATENATE(I5,D5,"_6.jpg;"),CONCATENATE(I5,D5,"_7.jpg;"),CONCATENATE(I5,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z5" s="13" t="str">
+        <f aca="false">CONCATENATE(I5,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="0" t="str">
+        <f aca="false">B5</f>
+        <v>Термонаклейка Черный Кот в цветах</v>
+      </c>
+      <c r="AC5" s="0" t="str">
+        <f aca="false">B5</f>
+        <v>Термонаклейка Черный Кот в цветах</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <f aca="false">Q5</f>
+        <v>349</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <f aca="false">ROUND(AD5*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <f aca="false">W5</f>
+        <v>10</v>
+      </c>
+      <c r="AK5" s="15" t="n">
+        <f aca="false">V5*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="15" t="n">
+        <f aca="false">U5*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN5" s="17" t="str">
+        <f aca="false">CONCATENATE(I5,D5,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_1.jpg</v>
+      </c>
+      <c r="AO5" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I5, D5, "_2.jpg;"),CONCATENATE(I5, D5, "_3.jpg;"),CONCATENATE(I5, D5, "_4.jpg;"),CONCATENATE(I5, D5, "_5.jpg;"),CONCATENATE(I5, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR5" s="17" t="str">
+        <f aca="false">K5</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B5,"Термонаклейка ","")</f>
+        <v>Черный Кот в цветах</v>
+      </c>
+      <c r="AW5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX5" s="0" t="str">
+        <f aca="false">S5</f>
+        <v>Термонаклейка Черный Кот в цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ5" s="15" t="str">
+        <f aca="false">X5</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC5" s="15" t="str">
+        <f aca="false">R5</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="18" t="str">
+        <f aca="false">CONCATENATE(I5,D5,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_head_d1_vert_color.jpg</v>
+      </c>
+      <c r="BO5" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B5,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Черный Кот в цветах</v>
+      </c>
+      <c r="BT5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU5" s="20" t="str">
+        <f aca="false">CONCATENATE(I5,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B6, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кот Сфинкс Звезды Молния.pdf</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D6,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\cat_stars_david_bow_vert_1.tif</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">B6</f>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="P6" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B6, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f aca="false">B6&amp;Описание!B11</f>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I6,D6,"_1.jpg;"),CONCATENATE(I6,D6,"_2.jpg;"),CONCATENATE(I6,D6,"_3.jpg;"),CONCATENATE(I6,D6,"_4.jpg;"),CONCATENATE(I6,D6,"_5.jpg;"),CONCATENATE(I6,D6,"_6.jpg;"),CONCATENATE(I6,D6,"_7.jpg;"),CONCATENATE(I6,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z6" s="13" t="str">
+        <f aca="false">CONCATENATE(I6,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="0" t="str">
+        <f aca="false">B6</f>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="AC6" s="0" t="str">
+        <f aca="false">B6</f>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <f aca="false">Q6</f>
+        <v>349</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <f aca="false">ROUND(AD6*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <f aca="false">W6</f>
+        <v>10</v>
+      </c>
+      <c r="AK6" s="15" t="n">
+        <f aca="false">V6*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="15" t="n">
+        <f aca="false">U6*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN6" s="17" t="str">
+        <f aca="false">CONCATENATE(I6,D6,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg</v>
+      </c>
+      <c r="AO6" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I6, D6, "_2.jpg;"),CONCATENATE(I6, D6, "_3.jpg;"),CONCATENATE(I6, D6, "_4.jpg;"),CONCATENATE(I6, D6, "_5.jpg;"),CONCATENATE(I6, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR6" s="17" t="str">
+        <f aca="false">K6</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B6,"Термонаклейка ","")</f>
+        <v>Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="AW6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="0" t="str">
+        <f aca="false">S6</f>
+        <v>Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ6" s="15" t="str">
+        <f aca="false">X6</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC6" s="15" t="str">
+        <f aca="false">R6</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="18" t="str">
+        <f aca="false">CONCATENATE(I6,D6,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_color.jpg</v>
+      </c>
+      <c r="BO6" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B6,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</v>
+      </c>
+      <c r="BT6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU6" s="20" t="str">
+        <f aca="false">CONCATENATE(I6,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
-    </row>
-    <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B7, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кот цветы внутри.pdf</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D7,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\cat_vert_1.tif</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">B7</f>
+        <v>Термонаклейка Кот цветы внутри</v>
+      </c>
+      <c r="P7" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B7, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кот цветы внутри</v>
+      </c>
+      <c r="Q7" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f aca="false">B7&amp;Описание!B12</f>
+        <v>Термонаклейка Кот цветы внутри - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I7,D7,"_1.jpg;"),CONCATENATE(I7,D7,"_2.jpg;"),CONCATENATE(I7,D7,"_3.jpg;"),CONCATENATE(I7,D7,"_4.jpg;"),CONCATENATE(I7,D7,"_5.jpg;"),CONCATENATE(I7,D7,"_6.jpg;"),CONCATENATE(I7,D7,"_7.jpg;"),CONCATENATE(I7,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z7" s="13" t="str">
+        <f aca="false">CONCATENATE(I7,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="0" t="str">
+        <f aca="false">B7</f>
+        <v>Термонаклейка Кот цветы внутри</v>
+      </c>
+      <c r="AC7" s="0" t="str">
+        <f aca="false">B7</f>
+        <v>Термонаклейка Кот цветы внутри</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <f aca="false">Q7</f>
+        <v>349</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <f aca="false">ROUND(AD7*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <f aca="false">W7</f>
+        <v>10</v>
+      </c>
+      <c r="AK7" s="15" t="n">
+        <f aca="false">V7*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="15" t="n">
+        <f aca="false">U7*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN7" s="17" t="str">
+        <f aca="false">CONCATENATE(I7,D7,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_1.jpg</v>
+      </c>
+      <c r="AO7" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I7, D7, "_2.jpg;"),CONCATENATE(I7, D7, "_3.jpg;"),CONCATENATE(I7, D7, "_4.jpg;"),CONCATENATE(I7, D7, "_5.jpg;"),CONCATENATE(I7, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR7" s="17" t="str">
+        <f aca="false">K7</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B7,"Термонаклейка ","")</f>
+        <v>Кот цветы внутри</v>
+      </c>
+      <c r="AW7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX7" s="0" t="str">
+        <f aca="false">S7</f>
+        <v>Термонаклейка Кот цветы внутри - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ7" s="15" t="str">
+        <f aca="false">X7</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC7" s="15" t="str">
+        <f aca="false">R7</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="18" t="str">
+        <f aca="false">CONCATENATE(I7,D7,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_vert_1_color.jpg</v>
+      </c>
+      <c r="BO7" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B7,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот цветы внутри</v>
+      </c>
+      <c r="BT7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU7" s="20" t="str">
+        <f aca="false">CONCATENATE(I7,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
-    </row>
-    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B8, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Белый Кот в цветах.pdf</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D8,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\cat1_f1_versB_vert.tif</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="0" t="str">
+        <f aca="false">B8</f>
+        <v>Термонаклейка Белый Кот в цветах</v>
+      </c>
+      <c r="P8" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B8, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Белый Кот в цветах</v>
+      </c>
+      <c r="Q8" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="11" t="str">
+        <f aca="false">B8&amp;Описание!B13</f>
+        <v>Термонаклейка Белый Кот в цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I8,D8,"_1.jpg;"),CONCATENATE(I8,D8,"_2.jpg;"),CONCATENATE(I8,D8,"_3.jpg;"),CONCATENATE(I8,D8,"_4.jpg;"),CONCATENATE(I8,D8,"_5.jpg;"),CONCATENATE(I8,D8,"_6.jpg;"),CONCATENATE(I8,D8,"_7.jpg;"),CONCATENATE(I8,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z8" s="13" t="str">
+        <f aca="false">CONCATENATE(I8,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="0" t="str">
+        <f aca="false">B8</f>
+        <v>Термонаклейка Белый Кот в цветах</v>
+      </c>
+      <c r="AC8" s="0" t="str">
+        <f aca="false">B8</f>
+        <v>Термонаклейка Белый Кот в цветах</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <f aca="false">Q8</f>
+        <v>349</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <f aca="false">ROUND(AD8*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <f aca="false">W8</f>
+        <v>10</v>
+      </c>
+      <c r="AK8" s="15" t="n">
+        <f aca="false">V8*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="15" t="n">
+        <f aca="false">U8*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN8" s="17" t="str">
+        <f aca="false">CONCATENATE(I8,D8,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_1.jpg</v>
+      </c>
+      <c r="AO8" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I8, D8, "_2.jpg;"),CONCATENATE(I8, D8, "_3.jpg;"),CONCATENATE(I8, D8, "_4.jpg;"),CONCATENATE(I8, D8, "_5.jpg;"),CONCATENATE(I8, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR8" s="17" t="str">
+        <f aca="false">K8</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B8,"Термонаклейка ","")</f>
+        <v>Белый Кот в цветах</v>
+      </c>
+      <c r="AW8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX8" s="0" t="str">
+        <f aca="false">S8</f>
+        <v>Термонаклейка Белый Кот в цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ8" s="15" t="str">
+        <f aca="false">X8</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC8" s="15" t="str">
+        <f aca="false">R8</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="18" t="str">
+        <f aca="false">CONCATENATE(I8,D8,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat1_f1_versB_vert_color.jpg</v>
+      </c>
+      <c r="BO8" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B8,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Белый Кот в цветах</v>
+      </c>
+      <c r="BT8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU8" s="20" t="str">
+        <f aca="false">CONCATENATE(I8,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B9, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Лотос розовый золотистый.pdf</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D9,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\flower_pink1_horiz.tif</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="0" t="str">
+        <f aca="false">B9</f>
+        <v>Термонаклейка Лотос розовый золотистый</v>
+      </c>
+      <c r="P9" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B9, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Лотос розовый золотистый</v>
+      </c>
+      <c r="Q9" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="11" t="str">
+        <f aca="false">B9&amp;Описание!B14</f>
+        <v>Термонаклейка Лотос розовый золотистый - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I9,D9,"_1.jpg;"),CONCATENATE(I9,D9,"_2.jpg;"),CONCATENATE(I9,D9,"_3.jpg;"),CONCATENATE(I9,D9,"_4.jpg;"),CONCATENATE(I9,D9,"_5.jpg;"),CONCATENATE(I9,D9,"_6.jpg;"),CONCATENATE(I9,D9,"_7.jpg;"),CONCATENATE(I9,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z9" s="13" t="str">
+        <f aca="false">CONCATENATE(I9,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="0" t="str">
+        <f aca="false">B9</f>
+        <v>Термонаклейка Лотос розовый золотистый</v>
+      </c>
+      <c r="AC9" s="0" t="str">
+        <f aca="false">B9</f>
+        <v>Термонаклейка Лотос розовый золотистый</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">Q9</f>
+        <v>349</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <f aca="false">ROUND(AD9*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <f aca="false">W9</f>
+        <v>10</v>
+      </c>
+      <c r="AK9" s="15" t="n">
+        <f aca="false">V9*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="15" t="n">
+        <f aca="false">U9*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN9" s="17" t="str">
+        <f aca="false">CONCATENATE(I9,D9,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_1.jpg</v>
+      </c>
+      <c r="AO9" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I9, D9, "_2.jpg;"),CONCATENATE(I9, D9, "_3.jpg;"),CONCATENATE(I9, D9, "_4.jpg;"),CONCATENATE(I9, D9, "_5.jpg;"),CONCATENATE(I9, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR9" s="17" t="str">
+        <f aca="false">K9</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B9,"Термонаклейка ","")</f>
+        <v>Лотос розовый золотистый</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX9" s="0" t="str">
+        <f aca="false">S9</f>
+        <v>Термонаклейка Лотос розовый золотистый - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ9" s="15" t="str">
+        <f aca="false">X9</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC9" s="15" t="str">
+        <f aca="false">R9</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="18" t="str">
+        <f aca="false">CONCATENATE(I9,D9,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flower_pink1_horiz_color.jpg</v>
+      </c>
+      <c r="BO9" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B9,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Лотос розовый золотистый</v>
+      </c>
+      <c r="BT9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU9" s="20" t="str">
+        <f aca="false">CONCATENATE(I9,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B10, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Синий Акварель.pdf</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D10,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\flowers_abc1_vert.tif</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="0" t="str">
+        <f aca="false">B10</f>
+        <v>Термонаклейка Цветы Синий Акварель</v>
+      </c>
+      <c r="P10" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B10, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Цветы Синий Акварель</v>
+      </c>
+      <c r="Q10" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="11" t="str">
+        <f aca="false">B10&amp;Описание!B15</f>
+        <v>Термонаклейка Цветы Синий Акварель - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I10,D10,"_1.jpg;"),CONCATENATE(I10,D10,"_2.jpg;"),CONCATENATE(I10,D10,"_3.jpg;"),CONCATENATE(I10,D10,"_4.jpg;"),CONCATENATE(I10,D10,"_5.jpg;"),CONCATENATE(I10,D10,"_6.jpg;"),CONCATENATE(I10,D10,"_7.jpg;"),CONCATENATE(I10,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z10" s="13" t="str">
+        <f aca="false">CONCATENATE(I10,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="0" t="str">
+        <f aca="false">B10</f>
+        <v>Термонаклейка Цветы Синий Акварель</v>
+      </c>
+      <c r="AC10" s="0" t="str">
+        <f aca="false">B10</f>
+        <v>Термонаклейка Цветы Синий Акварель</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <f aca="false">Q10</f>
+        <v>349</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <f aca="false">ROUND(AD10*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <f aca="false">W10</f>
+        <v>10</v>
+      </c>
+      <c r="AK10" s="15" t="n">
+        <f aca="false">V10*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="15" t="n">
+        <f aca="false">U10*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN10" s="17" t="str">
+        <f aca="false">CONCATENATE(I10,D10,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_1.jpg</v>
+      </c>
+      <c r="AO10" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I10, D10, "_2.jpg;"),CONCATENATE(I10, D10, "_3.jpg;"),CONCATENATE(I10, D10, "_4.jpg;"),CONCATENATE(I10, D10, "_5.jpg;"),CONCATENATE(I10, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR10" s="17" t="str">
+        <f aca="false">K10</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B10,"Термонаклейка ","")</f>
+        <v>Цветы Синий Акварель</v>
+      </c>
+      <c r="AW10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX10" s="0" t="str">
+        <f aca="false">S10</f>
+        <v>Термонаклейка Цветы Синий Акварель - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ10" s="15" t="str">
+        <f aca="false">X10</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC10" s="15" t="str">
+        <f aca="false">R10</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="18" t="str">
+        <f aca="false">CONCATENATE(I10,D10,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_abc1_vert_color.jpg</v>
+      </c>
+      <c r="BO10" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B10,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Синий Акварель</v>
+      </c>
+      <c r="BT10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU10" s="20" t="str">
+        <f aca="false">CONCATENATE(I10,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B11, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Орхидея Цветы Розовые.pdf</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D11,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\flowers_pinks12_vert.tif</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <f aca="false">B11</f>
+        <v>Термонаклейка Орхидея Цветы Розовые</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B11, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Орхидея Цветы Розовые</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f aca="false">B11&amp;Описание!B16</f>
+        <v>Термонаклейка Орхидея Цветы Розовые - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I11,D11,"_1.jpg;"),CONCATENATE(I11,D11,"_2.jpg;"),CONCATENATE(I11,D11,"_3.jpg;"),CONCATENATE(I11,D11,"_4.jpg;"),CONCATENATE(I11,D11,"_5.jpg;"),CONCATENATE(I11,D11,"_6.jpg;"),CONCATENATE(I11,D11,"_7.jpg;"),CONCATENATE(I11,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z11" s="13" t="str">
+        <f aca="false">CONCATENATE(I11,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="0" t="str">
+        <f aca="false">B11</f>
+        <v>Термонаклейка Орхидея Цветы Розовые</v>
+      </c>
+      <c r="AC11" s="0" t="str">
+        <f aca="false">B11</f>
+        <v>Термонаклейка Орхидея Цветы Розовые</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">Q11</f>
+        <v>349</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <f aca="false">ROUND(AD11*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <f aca="false">W11</f>
+        <v>10</v>
+      </c>
+      <c r="AK11" s="15" t="n">
+        <f aca="false">V11*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="15" t="n">
+        <f aca="false">U11*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN11" s="17" t="str">
+        <f aca="false">CONCATENATE(I11,D11,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_1.jpg</v>
+      </c>
+      <c r="AO11" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I11, D11, "_2.jpg;"),CONCATENATE(I11, D11, "_3.jpg;"),CONCATENATE(I11, D11, "_4.jpg;"),CONCATENATE(I11, D11, "_5.jpg;"),CONCATENATE(I11, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR11" s="17" t="str">
+        <f aca="false">K11</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B11,"Термонаклейка ","")</f>
+        <v>Орхидея Цветы Розовые</v>
+      </c>
+      <c r="AW11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX11" s="0" t="str">
+        <f aca="false">S11</f>
+        <v>Термонаклейка Орхидея Цветы Розовые - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ11" s="15" t="str">
+        <f aca="false">X11</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC11" s="15" t="str">
+        <f aca="false">R11</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="18" t="str">
+        <f aca="false">CONCATENATE(I11,D11,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/flowers_pinks12_vert_color.jpg</v>
+      </c>
+      <c r="BO11" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B11,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Орхидея Цветы Розовые</v>
+      </c>
+      <c r="BT11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU11" s="20" t="str">
+        <f aca="false">CONCATENATE(I11,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B12, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девочка и Лиса.pdf</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D12,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_and_fox1_vert.tif</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <f aca="false">B12</f>
+        <v>Термонаклейка Девочка и Лиса</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B12, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девочка и Лиса</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f aca="false">B12&amp;Описание!B17</f>
+        <v>Термонаклейка Девочка и Лиса - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I12,D12,"_1.jpg;"),CONCATENATE(I12,D12,"_2.jpg;"),CONCATENATE(I12,D12,"_3.jpg;"),CONCATENATE(I12,D12,"_4.jpg;"),CONCATENATE(I12,D12,"_5.jpg;"),CONCATENATE(I12,D12,"_6.jpg;"),CONCATENATE(I12,D12,"_7.jpg;"),CONCATENATE(I12,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z12" s="13" t="str">
+        <f aca="false">CONCATENATE(I12,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="0" t="str">
+        <f aca="false">B12</f>
+        <v>Термонаклейка Девочка и Лиса</v>
+      </c>
+      <c r="AC12" s="0" t="str">
+        <f aca="false">B12</f>
+        <v>Термонаклейка Девочка и Лиса</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">Q12</f>
+        <v>349</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <f aca="false">ROUND(AD12*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <f aca="false">W12</f>
+        <v>10</v>
+      </c>
+      <c r="AK12" s="15" t="n">
+        <f aca="false">V12*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="15" t="n">
+        <f aca="false">U12*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN12" s="17" t="str">
+        <f aca="false">CONCATENATE(I12,D12,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_1.jpg</v>
+      </c>
+      <c r="AO12" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I12, D12, "_2.jpg;"),CONCATENATE(I12, D12, "_3.jpg;"),CONCATENATE(I12, D12, "_4.jpg;"),CONCATENATE(I12, D12, "_5.jpg;"),CONCATENATE(I12, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR12" s="17" t="str">
+        <f aca="false">K12</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B12,"Термонаклейка ","")</f>
+        <v>Девочка и Лиса</v>
+      </c>
+      <c r="AW12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX12" s="0" t="str">
+        <f aca="false">S12</f>
+        <v>Термонаклейка Девочка и Лиса - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ12" s="15" t="str">
+        <f aca="false">X12</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC12" s="15" t="str">
+        <f aca="false">R12</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="18" t="str">
+        <f aca="false">CONCATENATE(I12,D12,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_and_fox1_vert_color.jpg</v>
+      </c>
+      <c r="BO12" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B12,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девочка и Лиса</v>
+      </c>
+      <c r="BT12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU12" s="20" t="str">
+        <f aca="false">CONCATENATE(I12,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B13, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Венок Луна Акварель.pdf</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D13,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_flowers_planet_venok_vert_1.tif</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <f aca="false">B13</f>
+        <v>Термонаклейка Девушка Венок Луна Акварель</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B13, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Венок Луна Акварель</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="11" t="str">
+        <f aca="false">B13&amp;Описание!B18</f>
+        <v>Термонаклейка Девушка Венок Луна Акварель - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I13,D13,"_1.jpg;"),CONCATENATE(I13,D13,"_2.jpg;"),CONCATENATE(I13,D13,"_3.jpg;"),CONCATENATE(I13,D13,"_4.jpg;"),CONCATENATE(I13,D13,"_5.jpg;"),CONCATENATE(I13,D13,"_6.jpg;"),CONCATENATE(I13,D13,"_7.jpg;"),CONCATENATE(I13,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z13" s="13" t="str">
+        <f aca="false">CONCATENATE(I13,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="0" t="str">
+        <f aca="false">B13</f>
+        <v>Термонаклейка Девушка Венок Луна Акварель</v>
+      </c>
+      <c r="AC13" s="0" t="str">
+        <f aca="false">B13</f>
+        <v>Термонаклейка Девушка Венок Луна Акварель</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <f aca="false">Q13</f>
+        <v>349</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <f aca="false">ROUND(AD13*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
+        <f aca="false">W13</f>
+        <v>10</v>
+      </c>
+      <c r="AK13" s="15" t="n">
+        <f aca="false">V13*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="15" t="n">
+        <f aca="false">U13*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN13" s="17" t="str">
+        <f aca="false">CONCATENATE(I13,D13,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_1.jpg</v>
+      </c>
+      <c r="AO13" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I13, D13, "_2.jpg;"),CONCATENATE(I13, D13, "_3.jpg;"),CONCATENATE(I13, D13, "_4.jpg;"),CONCATENATE(I13, D13, "_5.jpg;"),CONCATENATE(I13, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR13" s="17" t="str">
+        <f aca="false">K13</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B13,"Термонаклейка ","")</f>
+        <v>Девушка Венок Луна Акварель</v>
+      </c>
+      <c r="AW13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX13" s="0" t="str">
+        <f aca="false">S13</f>
+        <v>Термонаклейка Девушка Венок Луна Акварель - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ13" s="15" t="str">
+        <f aca="false">X13</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC13" s="15" t="str">
+        <f aca="false">R13</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="18" t="str">
+        <f aca="false">CONCATENATE(I13,D13,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_flowers_planet_venok_vert_1_color.jpg</v>
+      </c>
+      <c r="BO13" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B13,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Венок Луна Акварель</v>
+      </c>
+      <c r="BT13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU13" s="20" t="str">
+        <f aca="false">CONCATENATE(I13,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B14, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Волосы Бабочки.pdf</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D14,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_head_butterflys_de1_vert.tif</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="0" t="str">
+        <f aca="false">B14</f>
+        <v>Термонаклейка Девушка Волосы Бабочки</v>
+      </c>
+      <c r="P14" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B14, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Волосы Бабочки</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f aca="false">B14&amp;Описание!B19</f>
+        <v>Термонаклейка Девушка Волосы Бабочки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I14,D14,"_1.jpg;"),CONCATENATE(I14,D14,"_2.jpg;"),CONCATENATE(I14,D14,"_3.jpg;"),CONCATENATE(I14,D14,"_4.jpg;"),CONCATENATE(I14,D14,"_5.jpg;"),CONCATENATE(I14,D14,"_6.jpg;"),CONCATENATE(I14,D14,"_7.jpg;"),CONCATENATE(I14,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z14" s="13" t="str">
+        <f aca="false">CONCATENATE(I14,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="0" t="str">
+        <f aca="false">B14</f>
+        <v>Термонаклейка Девушка Волосы Бабочки</v>
+      </c>
+      <c r="AC14" s="0" t="str">
+        <f aca="false">B14</f>
+        <v>Термонаклейка Девушка Волосы Бабочки</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <f aca="false">Q14</f>
+        <v>349</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <f aca="false">ROUND(AD14*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <f aca="false">W14</f>
+        <v>10</v>
+      </c>
+      <c r="AK14" s="15" t="n">
+        <f aca="false">V14*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="15" t="n">
+        <f aca="false">U14*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN14" s="17" t="str">
+        <f aca="false">CONCATENATE(I14,D14,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_1.jpg</v>
+      </c>
+      <c r="AO14" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I14, D14, "_2.jpg;"),CONCATENATE(I14, D14, "_3.jpg;"),CONCATENATE(I14, D14, "_4.jpg;"),CONCATENATE(I14, D14, "_5.jpg;"),CONCATENATE(I14, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR14" s="17" t="str">
+        <f aca="false">K14</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B14,"Термонаклейка ","")</f>
+        <v>Девушка Волосы Бабочки</v>
+      </c>
+      <c r="AW14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX14" s="0" t="str">
+        <f aca="false">S14</f>
+        <v>Термонаклейка Девушка Волосы Бабочки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ14" s="15" t="str">
+        <f aca="false">X14</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC14" s="15" t="str">
+        <f aca="false">R14</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="18" t="str">
+        <f aca="false">CONCATENATE(I14,D14,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_butterflys_de1_vert_color.jpg</v>
+      </c>
+      <c r="BO14" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B14,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Волосы Бабочки</v>
+      </c>
+      <c r="BT14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU14" s="20" t="str">
+        <f aca="false">CONCATENATE(I14,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B15, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Природа Силует.pdf</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D15,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_head_forest_green_vert1.tif</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="0" t="str">
+        <f aca="false">B15</f>
+        <v>Термонаклейка Девушка Природа Силует</v>
+      </c>
+      <c r="P15" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B15, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Природа Силует</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="11" t="str">
+        <f aca="false">B15&amp;Описание!B20</f>
+        <v>Термонаклейка Девушка Природа Силует - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I15,D15,"_1.jpg;"),CONCATENATE(I15,D15,"_2.jpg;"),CONCATENATE(I15,D15,"_3.jpg;"),CONCATENATE(I15,D15,"_4.jpg;"),CONCATENATE(I15,D15,"_5.jpg;"),CONCATENATE(I15,D15,"_6.jpg;"),CONCATENATE(I15,D15,"_7.jpg;"),CONCATENATE(I15,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z15" s="13" t="str">
+        <f aca="false">CONCATENATE(I15,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="0" t="str">
+        <f aca="false">B15</f>
+        <v>Термонаклейка Девушка Природа Силует</v>
+      </c>
+      <c r="AC15" s="0" t="str">
+        <f aca="false">B15</f>
+        <v>Термонаклейка Девушка Природа Силует</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <f aca="false">Q15</f>
+        <v>349</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <f aca="false">ROUND(AD15*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <f aca="false">W15</f>
+        <v>10</v>
+      </c>
+      <c r="AK15" s="15" t="n">
+        <f aca="false">V15*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="15" t="n">
+        <f aca="false">U15*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN15" s="17" t="str">
+        <f aca="false">CONCATENATE(I15,D15,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_1.jpg</v>
+      </c>
+      <c r="AO15" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I15, D15, "_2.jpg;"),CONCATENATE(I15, D15, "_3.jpg;"),CONCATENATE(I15, D15, "_4.jpg;"),CONCATENATE(I15, D15, "_5.jpg;"),CONCATENATE(I15, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR15" s="17" t="str">
+        <f aca="false">K15</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B15,"Термонаклейка ","")</f>
+        <v>Девушка Природа Силует</v>
+      </c>
+      <c r="AW15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX15" s="0" t="str">
+        <f aca="false">S15</f>
+        <v>Термонаклейка Девушка Природа Силует - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ15" s="15" t="str">
+        <f aca="false">X15</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC15" s="15" t="str">
+        <f aca="false">R15</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="18" t="str">
+        <f aca="false">CONCATENATE(I15,D15,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_head_forest_green_vert1_color.jpg</v>
+      </c>
+      <c r="BO15" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B15,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Природа Силует</v>
+      </c>
+      <c r="BT15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU15" s="20" t="str">
+        <f aca="false">CONCATENATE(I15,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B16, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Маска Доберман Собака.pdf</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D16,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_headwolf_ad_vert.tif</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <f aca="false">B16</f>
+        <v>Термонаклейка Девушка Маска Доберман Собака</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B16, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Маска Доберман Собака</v>
+      </c>
+      <c r="Q16" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f aca="false">B16&amp;Описание!B21</f>
+        <v>Термонаклейка Девушка Маска Доберман Собака - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y16" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I16,D16,"_1.jpg;"),CONCATENATE(I16,D16,"_2.jpg;"),CONCATENATE(I16,D16,"_3.jpg;"),CONCATENATE(I16,D16,"_4.jpg;"),CONCATENATE(I16,D16,"_5.jpg;"),CONCATENATE(I16,D16,"_6.jpg;"),CONCATENATE(I16,D16,"_7.jpg;"),CONCATENATE(I16,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z16" s="13" t="str">
+        <f aca="false">CONCATENATE(I16,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="0" t="str">
+        <f aca="false">B16</f>
+        <v>Термонаклейка Девушка Маска Доберман Собака</v>
+      </c>
+      <c r="AC16" s="0" t="str">
+        <f aca="false">B16</f>
+        <v>Термонаклейка Девушка Маска Доберман Собака</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <f aca="false">Q16</f>
+        <v>349</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <f aca="false">ROUND(AD16*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <f aca="false">W16</f>
+        <v>10</v>
+      </c>
+      <c r="AK16" s="15" t="n">
+        <f aca="false">V16*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="15" t="n">
+        <f aca="false">U16*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN16" s="17" t="str">
+        <f aca="false">CONCATENATE(I16,D16,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_1.jpg</v>
+      </c>
+      <c r="AO16" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I16, D16, "_2.jpg;"),CONCATENATE(I16, D16, "_3.jpg;"),CONCATENATE(I16, D16, "_4.jpg;"),CONCATENATE(I16, D16, "_5.jpg;"),CONCATENATE(I16, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR16" s="17" t="str">
+        <f aca="false">K16</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B16,"Термонаклейка ","")</f>
+        <v>Девушка Маска Доберман Собака</v>
+      </c>
+      <c r="AW16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX16" s="0" t="str">
+        <f aca="false">S16</f>
+        <v>Термонаклейка Девушка Маска Доберман Собака - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ16" s="15" t="str">
+        <f aca="false">X16</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC16" s="15" t="str">
+        <f aca="false">R16</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="18" t="str">
+        <f aca="false">CONCATENATE(I16,D16,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_headwolf_ad_vert_color.jpg</v>
+      </c>
+      <c r="BO16" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B16,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Маска Доберман Собака</v>
+      </c>
+      <c r="BT16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU16" s="20" t="str">
+        <f aca="false">CONCATENATE(I16,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B17, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Аниме Япония Красное Солнце.pdf</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D17,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_redsun_japan1_vert.tif</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <f aca="false">B17</f>
+        <v>Термонаклейка Девушка Аниме Япония Красное Солнце</v>
+      </c>
+      <c r="P17" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B17, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Аниме Япония Красное Солнце</v>
+      </c>
+      <c r="Q17" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" s="11" t="str">
+        <f aca="false">B17&amp;Описание!B22</f>
+        <v>Термонаклейка Девушка Аниме Япония Красное Солнце - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I17,D17,"_1.jpg;"),CONCATENATE(I17,D17,"_2.jpg;"),CONCATENATE(I17,D17,"_3.jpg;"),CONCATENATE(I17,D17,"_4.jpg;"),CONCATENATE(I17,D17,"_5.jpg;"),CONCATENATE(I17,D17,"_6.jpg;"),CONCATENATE(I17,D17,"_7.jpg;"),CONCATENATE(I17,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z17" s="13" t="str">
+        <f aca="false">CONCATENATE(I17,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="0" t="str">
+        <f aca="false">B17</f>
+        <v>Термонаклейка Девушка Аниме Япония Красное Солнце</v>
+      </c>
+      <c r="AC17" s="0" t="str">
+        <f aca="false">B17</f>
+        <v>Термонаклейка Девушка Аниме Япония Красное Солнце</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <f aca="false">Q17</f>
+        <v>349</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <f aca="false">ROUND(AD17*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <f aca="false">W17</f>
+        <v>10</v>
+      </c>
+      <c r="AK17" s="15" t="n">
+        <f aca="false">V17*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL17" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="15" t="n">
+        <f aca="false">U17*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN17" s="17" t="str">
+        <f aca="false">CONCATENATE(I17,D17,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_1.jpg</v>
+      </c>
+      <c r="AO17" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I17, D17, "_2.jpg;"),CONCATENATE(I17, D17, "_3.jpg;"),CONCATENATE(I17, D17, "_4.jpg;"),CONCATENATE(I17, D17, "_5.jpg;"),CONCATENATE(I17, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR17" s="17" t="str">
+        <f aca="false">K17</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B17,"Термонаклейка ","")</f>
+        <v>Девушка Аниме Япония Красное Солнце</v>
+      </c>
+      <c r="AW17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX17" s="0" t="str">
+        <f aca="false">S17</f>
+        <v>Термонаклейка Девушка Аниме Япония Красное Солнце - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ17" s="15" t="str">
+        <f aca="false">X17</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC17" s="15" t="str">
+        <f aca="false">R17</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="18" t="str">
+        <f aca="false">CONCATENATE(I17,D17,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_redsun_japan1_vert_color.jpg</v>
+      </c>
+      <c r="BO17" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B17,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Аниме Япония Красное Солнце</v>
+      </c>
+      <c r="BT17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU17" s="20" t="str">
+        <f aca="false">CONCATENATE(I17,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B18, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Силует Закат.pdf</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D18,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_sunset_vert_1.tif</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <f aca="false">B18</f>
+        <v>Термонаклейка Девушка Силует Закат</v>
+      </c>
+      <c r="P18" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B18, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Силует Закат</v>
+      </c>
+      <c r="Q18" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" s="11" t="str">
+        <f aca="false">B18&amp;Описание!B23</f>
+        <v>Термонаклейка Девушка Силует Закат - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I18,D18,"_1.jpg;"),CONCATENATE(I18,D18,"_2.jpg;"),CONCATENATE(I18,D18,"_3.jpg;"),CONCATENATE(I18,D18,"_4.jpg;"),CONCATENATE(I18,D18,"_5.jpg;"),CONCATENATE(I18,D18,"_6.jpg;"),CONCATENATE(I18,D18,"_7.jpg;"),CONCATENATE(I18,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z18" s="13" t="str">
+        <f aca="false">CONCATENATE(I18,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="0" t="str">
+        <f aca="false">B18</f>
+        <v>Термонаклейка Девушка Силует Закат</v>
+      </c>
+      <c r="AC18" s="0" t="str">
+        <f aca="false">B18</f>
+        <v>Термонаклейка Девушка Силует Закат</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <f aca="false">Q18</f>
+        <v>349</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <f aca="false">ROUND(AD18*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <f aca="false">W18</f>
+        <v>10</v>
+      </c>
+      <c r="AK18" s="15" t="n">
+        <f aca="false">V18*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="15" t="n">
+        <f aca="false">U18*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN18" s="17" t="str">
+        <f aca="false">CONCATENATE(I18,D18,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_1.jpg</v>
+      </c>
+      <c r="AO18" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I18, D18, "_2.jpg;"),CONCATENATE(I18, D18, "_3.jpg;"),CONCATENATE(I18, D18, "_4.jpg;"),CONCATENATE(I18, D18, "_5.jpg;"),CONCATENATE(I18, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR18" s="17" t="str">
+        <f aca="false">K18</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B18,"Термонаклейка ","")</f>
+        <v>Девушка Силует Закат</v>
+      </c>
+      <c r="AW18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX18" s="0" t="str">
+        <f aca="false">S18</f>
+        <v>Термонаклейка Девушка Силует Закат - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ18" s="15" t="str">
+        <f aca="false">X18</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC18" s="15" t="str">
+        <f aca="false">R18</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="18" t="str">
+        <f aca="false">CONCATENATE(I18,D18,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_sunset_vert_1_color.jpg</v>
+      </c>
+      <c r="BO18" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B18,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Силует Закат</v>
+      </c>
+      <c r="BT18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU18" s="20" t="str">
+        <f aca="false">CONCATENATE(I18,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B19, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка Силует Акварель Лес.pdf</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D19,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\girl_whiteblack_forest_vert_1.tif</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="0" t="str">
+        <f aca="false">B19</f>
+        <v>Термонаклейка Девушка Силует Акварель Лес</v>
+      </c>
+      <c r="P19" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B19, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Силует Акварель Лес</v>
+      </c>
+      <c r="Q19" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="11" t="str">
+        <f aca="false">B19&amp;Описание!B24</f>
+        <v>Термонаклейка Девушка Силует Акварель Лес - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I19,D19,"_1.jpg;"),CONCATENATE(I19,D19,"_2.jpg;"),CONCATENATE(I19,D19,"_3.jpg;"),CONCATENATE(I19,D19,"_4.jpg;"),CONCATENATE(I19,D19,"_5.jpg;"),CONCATENATE(I19,D19,"_6.jpg;"),CONCATENATE(I19,D19,"_7.jpg;"),CONCATENATE(I19,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z19" s="13" t="str">
+        <f aca="false">CONCATENATE(I19,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="0" t="str">
+        <f aca="false">B19</f>
+        <v>Термонаклейка Девушка Силует Акварель Лес</v>
+      </c>
+      <c r="AC19" s="0" t="str">
+        <f aca="false">B19</f>
+        <v>Термонаклейка Девушка Силует Акварель Лес</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <f aca="false">Q19</f>
+        <v>349</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <f aca="false">ROUND(AD19*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <f aca="false">W19</f>
+        <v>10</v>
+      </c>
+      <c r="AK19" s="15" t="n">
+        <f aca="false">V19*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="15" t="n">
+        <f aca="false">U19*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN19" s="17" t="str">
+        <f aca="false">CONCATENATE(I19,D19,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_1.jpg</v>
+      </c>
+      <c r="AO19" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I19, D19, "_2.jpg;"),CONCATENATE(I19, D19, "_3.jpg;"),CONCATENATE(I19, D19, "_4.jpg;"),CONCATENATE(I19, D19, "_5.jpg;"),CONCATENATE(I19, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR19" s="17" t="str">
+        <f aca="false">K19</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B19,"Термонаклейка ","")</f>
+        <v>Девушка Силует Акварель Лес</v>
+      </c>
+      <c r="AW19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX19" s="0" t="str">
+        <f aca="false">S19</f>
+        <v>Термонаклейка Девушка Силует Акварель Лес - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ19" s="15" t="str">
+        <f aca="false">X19</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC19" s="15" t="str">
+        <f aca="false">R19</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="18" t="str">
+        <f aca="false">CONCATENATE(I19,D19,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/girl_whiteblack_forest_vert_1_color.jpg</v>
+      </c>
+      <c r="BO19" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B19,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Силует Акварель Лес</v>
+      </c>
+      <c r="BT19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU19" s="20" t="str">
+        <f aca="false">CONCATENATE(I19,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B20, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Букет Цветы.pdf</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D20,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\heart_flowers_horiz.tif</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="0" t="str">
+        <f aca="false">B20</f>
+        <v>Термонаклейка Сердце Букет Цветы</v>
+      </c>
+      <c r="P20" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B20, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Сердце Букет Цветы</v>
+      </c>
+      <c r="Q20" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="11" t="str">
+        <f aca="false">B20&amp;Описание!B25</f>
+        <v>Термонаклейка Сердце Букет Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y20" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I20,D20,"_1.jpg;"),CONCATENATE(I20,D20,"_2.jpg;"),CONCATENATE(I20,D20,"_3.jpg;"),CONCATENATE(I20,D20,"_4.jpg;"),CONCATENATE(I20,D20,"_5.jpg;"),CONCATENATE(I20,D20,"_6.jpg;"),CONCATENATE(I20,D20,"_7.jpg;"),CONCATENATE(I20,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z20" s="13" t="str">
+        <f aca="false">CONCATENATE(I20,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="0" t="str">
+        <f aca="false">B20</f>
+        <v>Термонаклейка Сердце Букет Цветы</v>
+      </c>
+      <c r="AC20" s="0" t="str">
+        <f aca="false">B20</f>
+        <v>Термонаклейка Сердце Букет Цветы</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <f aca="false">Q20</f>
+        <v>349</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <f aca="false">ROUND(AD20*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <f aca="false">W20</f>
+        <v>10</v>
+      </c>
+      <c r="AK20" s="15" t="n">
+        <f aca="false">V20*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="15" t="n">
+        <f aca="false">U20*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN20" s="17" t="str">
+        <f aca="false">CONCATENATE(I20,D20,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_1.jpg</v>
+      </c>
+      <c r="AO20" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I20, D20, "_2.jpg;"),CONCATENATE(I20, D20, "_3.jpg;"),CONCATENATE(I20, D20, "_4.jpg;"),CONCATENATE(I20, D20, "_5.jpg;"),CONCATENATE(I20, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR20" s="17" t="str">
+        <f aca="false">K20</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B20,"Термонаклейка ","")</f>
+        <v>Сердце Букет Цветы</v>
+      </c>
+      <c r="AW20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX20" s="0" t="str">
+        <f aca="false">S20</f>
+        <v>Термонаклейка Сердце Букет Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ20" s="15" t="str">
+        <f aca="false">X20</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC20" s="15" t="str">
+        <f aca="false">R20</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="18" t="str">
+        <f aca="false">CONCATENATE(I20,D20,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_flowers_horiz_color.jpg</v>
+      </c>
+      <c r="BO20" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B20,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сердце Букет Цветы</v>
+      </c>
+      <c r="BT20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU20" s="20" t="str">
+        <f aca="false">CONCATENATE(I20,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B21, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Море Силует.pdf</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D21,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\heart_ocean1_horiz.tif</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="0" t="str">
+        <f aca="false">B21</f>
+        <v>Термонаклейка Сердце Море Силует</v>
+      </c>
+      <c r="P21" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B21, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Сердце Море Силует</v>
+      </c>
+      <c r="Q21" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="11" t="str">
+        <f aca="false">B21&amp;Описание!B26</f>
+        <v>Термонаклейка Сердце Море Силует - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I21,D21,"_1.jpg;"),CONCATENATE(I21,D21,"_2.jpg;"),CONCATENATE(I21,D21,"_3.jpg;"),CONCATENATE(I21,D21,"_4.jpg;"),CONCATENATE(I21,D21,"_5.jpg;"),CONCATENATE(I21,D21,"_6.jpg;"),CONCATENATE(I21,D21,"_7.jpg;"),CONCATENATE(I21,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z21" s="13" t="str">
+        <f aca="false">CONCATENATE(I21,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="0" t="str">
+        <f aca="false">B21</f>
+        <v>Термонаклейка Сердце Море Силует</v>
+      </c>
+      <c r="AC21" s="0" t="str">
+        <f aca="false">B21</f>
+        <v>Термонаклейка Сердце Море Силует</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <f aca="false">Q21</f>
+        <v>349</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <f aca="false">ROUND(AD21*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <f aca="false">W21</f>
+        <v>10</v>
+      </c>
+      <c r="AK21" s="15" t="n">
+        <f aca="false">V21*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL21" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="15" t="n">
+        <f aca="false">U21*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN21" s="17" t="str">
+        <f aca="false">CONCATENATE(I21,D21,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_1.jpg</v>
+      </c>
+      <c r="AO21" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I21, D21, "_2.jpg;"),CONCATENATE(I21, D21, "_3.jpg;"),CONCATENATE(I21, D21, "_4.jpg;"),CONCATENATE(I21, D21, "_5.jpg;"),CONCATENATE(I21, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR21" s="17" t="str">
+        <f aca="false">K21</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B21,"Термонаклейка ","")</f>
+        <v>Сердце Море Силует</v>
+      </c>
+      <c r="AW21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX21" s="0" t="str">
+        <f aca="false">S21</f>
+        <v>Термонаклейка Сердце Море Силует - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ21" s="15" t="str">
+        <f aca="false">X21</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC21" s="15" t="str">
+        <f aca="false">R21</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="18" t="str">
+        <f aca="false">CONCATENATE(I21,D21,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/heart_ocean1_horiz_color.jpg</v>
+      </c>
+      <c r="BO21" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B21,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сердце Море Силует</v>
+      </c>
+      <c r="BT21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU21" s="20" t="str">
+        <f aca="false">CONCATENATE(I21,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B22, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Белая Лошадь Цветы.pdf</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D22,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\horse_white1_vert.tif</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="0" t="str">
+        <f aca="false">B22</f>
+        <v>Термонаклейка Белая Лошадь Цветы</v>
+      </c>
+      <c r="P22" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B22, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Белая Лошадь Цветы</v>
+      </c>
+      <c r="Q22" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="11" t="str">
+        <f aca="false">B22&amp;Описание!B27</f>
+        <v>Термонаклейка Белая Лошадь Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I22,D22,"_1.jpg;"),CONCATENATE(I22,D22,"_2.jpg;"),CONCATENATE(I22,D22,"_3.jpg;"),CONCATENATE(I22,D22,"_4.jpg;"),CONCATENATE(I22,D22,"_5.jpg;"),CONCATENATE(I22,D22,"_6.jpg;"),CONCATENATE(I22,D22,"_7.jpg;"),CONCATENATE(I22,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z22" s="13" t="str">
+        <f aca="false">CONCATENATE(I22,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="0" t="str">
+        <f aca="false">B22</f>
+        <v>Термонаклейка Белая Лошадь Цветы</v>
+      </c>
+      <c r="AC22" s="0" t="str">
+        <f aca="false">B22</f>
+        <v>Термонаклейка Белая Лошадь Цветы</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <f aca="false">Q22</f>
+        <v>349</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <f aca="false">ROUND(AD22*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <f aca="false">W22</f>
+        <v>10</v>
+      </c>
+      <c r="AK22" s="15" t="n">
+        <f aca="false">V22*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="15" t="n">
+        <f aca="false">U22*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN22" s="17" t="str">
+        <f aca="false">CONCATENATE(I22,D22,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_1.jpg</v>
+      </c>
+      <c r="AO22" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I22, D22, "_2.jpg;"),CONCATENATE(I22, D22, "_3.jpg;"),CONCATENATE(I22, D22, "_4.jpg;"),CONCATENATE(I22, D22, "_5.jpg;"),CONCATENATE(I22, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR22" s="17" t="str">
+        <f aca="false">K22</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B22,"Термонаклейка ","")</f>
+        <v>Белая Лошадь Цветы</v>
+      </c>
+      <c r="AW22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX22" s="0" t="str">
+        <f aca="false">S22</f>
+        <v>Термонаклейка Белая Лошадь Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ22" s="15" t="str">
+        <f aca="false">X22</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC22" s="15" t="str">
+        <f aca="false">R22</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="18" t="str">
+        <f aca="false">CONCATENATE(I22,D22,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/horse_white1_vert_color.jpg</v>
+      </c>
+      <c r="BO22" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B22,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Белая Лошадь Цветы</v>
+      </c>
+      <c r="BT22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU22" s="20" t="str">
+        <f aca="false">CONCATENATE(I22,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B23, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Морская Ракушка Силует.pdf</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D23,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\seashell_a1_vert.tif</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="0" t="str">
+        <f aca="false">B23</f>
+        <v>Термонаклейка Морская Ракушка Силует</v>
+      </c>
+      <c r="P23" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B23, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Морская Ракушка Силует</v>
+      </c>
+      <c r="Q23" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="11" t="str">
+        <f aca="false">B23&amp;Описание!B28</f>
+        <v>Термонаклейка Морская Ракушка Силует - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y23" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I23,D23,"_1.jpg;"),CONCATENATE(I23,D23,"_2.jpg;"),CONCATENATE(I23,D23,"_3.jpg;"),CONCATENATE(I23,D23,"_4.jpg;"),CONCATENATE(I23,D23,"_5.jpg;"),CONCATENATE(I23,D23,"_6.jpg;"),CONCATENATE(I23,D23,"_7.jpg;"),CONCATENATE(I23,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z23" s="13" t="str">
+        <f aca="false">CONCATENATE(I23,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="0" t="str">
+        <f aca="false">B23</f>
+        <v>Термонаклейка Морская Ракушка Силует</v>
+      </c>
+      <c r="AC23" s="0" t="str">
+        <f aca="false">B23</f>
+        <v>Термонаклейка Морская Ракушка Силует</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <f aca="false">Q23</f>
+        <v>349</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <f aca="false">ROUND(AD23*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <f aca="false">W23</f>
+        <v>10</v>
+      </c>
+      <c r="AK23" s="15" t="n">
+        <f aca="false">V23*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL23" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="15" t="n">
+        <f aca="false">U23*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN23" s="17" t="str">
+        <f aca="false">CONCATENATE(I23,D23,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_1.jpg</v>
+      </c>
+      <c r="AO23" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I23, D23, "_2.jpg;"),CONCATENATE(I23, D23, "_3.jpg;"),CONCATENATE(I23, D23, "_4.jpg;"),CONCATENATE(I23, D23, "_5.jpg;"),CONCATENATE(I23, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR23" s="17" t="str">
+        <f aca="false">K23</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B23,"Термонаклейка ","")</f>
+        <v>Морская Ракушка Силует</v>
+      </c>
+      <c r="AW23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX23" s="0" t="str">
+        <f aca="false">S23</f>
+        <v>Термонаклейка Морская Ракушка Силует - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ23" s="15" t="str">
+        <f aca="false">X23</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC23" s="15" t="str">
+        <f aca="false">R23</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="18" t="str">
+        <f aca="false">CONCATENATE(I23,D23,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/seashell_a1_vert_color.jpg</v>
+      </c>
+      <c r="BO23" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B23,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Морская Ракушка Силует</v>
+      </c>
+      <c r="BT23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU23" s="20" t="str">
+        <f aca="false">CONCATENATE(I23,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B24, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Подсолнухи Цветы.pdf</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D24,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\sunflower_v1_vert.tif</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="0" t="str">
+        <f aca="false">B24</f>
+        <v>Термонаклейка Подсолнухи Цветы</v>
+      </c>
+      <c r="P24" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B24, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Подсолнухи Цветы</v>
+      </c>
+      <c r="Q24" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S24" s="11" t="str">
+        <f aca="false">B24&amp;Описание!B29</f>
+        <v>Термонаклейка Подсолнухи Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y24" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I24,D24,"_1.jpg;"),CONCATENATE(I24,D24,"_2.jpg;"),CONCATENATE(I24,D24,"_3.jpg;"),CONCATENATE(I24,D24,"_4.jpg;"),CONCATENATE(I24,D24,"_5.jpg;"),CONCATENATE(I24,D24,"_6.jpg;"),CONCATENATE(I24,D24,"_7.jpg;"),CONCATENATE(I24,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z24" s="13" t="str">
+        <f aca="false">CONCATENATE(I24,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="0" t="str">
+        <f aca="false">B24</f>
+        <v>Термонаклейка Подсолнухи Цветы</v>
+      </c>
+      <c r="AC24" s="0" t="str">
+        <f aca="false">B24</f>
+        <v>Термонаклейка Подсолнухи Цветы</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <f aca="false">Q24</f>
+        <v>349</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <f aca="false">ROUND(AD24*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
+        <f aca="false">W24</f>
+        <v>10</v>
+      </c>
+      <c r="AK24" s="15" t="n">
+        <f aca="false">V24*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL24" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="15" t="n">
+        <f aca="false">U24*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN24" s="17" t="str">
+        <f aca="false">CONCATENATE(I24,D24,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_1.jpg</v>
+      </c>
+      <c r="AO24" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I24, D24, "_2.jpg;"),CONCATENATE(I24, D24, "_3.jpg;"),CONCATENATE(I24, D24, "_4.jpg;"),CONCATENATE(I24, D24, "_5.jpg;"),CONCATENATE(I24, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR24" s="17" t="str">
+        <f aca="false">K24</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B24,"Термонаклейка ","")</f>
+        <v>Подсолнухи Цветы</v>
+      </c>
+      <c r="AW24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX24" s="0" t="str">
+        <f aca="false">S24</f>
+        <v>Термонаклейка Подсолнухи Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ24" s="15" t="str">
+        <f aca="false">X24</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC24" s="15" t="str">
+        <f aca="false">R24</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="18" t="str">
+        <f aca="false">CONCATENATE(I24,D24,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/sunflower_v1_vert_color.jpg</v>
+      </c>
+      <c r="BO24" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B24,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Подсолнухи Цветы</v>
+      </c>
+      <c r="BT24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU24" s="20" t="str">
+        <f aca="false">CONCATENATE(I24,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B25, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Черепаха Цветы на панцире.pdf</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D25,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\turtle_t1_horiz.tif</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="0" t="str">
+        <f aca="false">B25</f>
+        <v>Термонаклейка Черепаха Цветы на панцире</v>
+      </c>
+      <c r="P25" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B25, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Черепаха Цветы на панцире</v>
+      </c>
+      <c r="Q25" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25" s="11" t="str">
+        <f aca="false">B25&amp;Описание!B30</f>
+        <v>Термонаклейка Черепаха Цветы на панцире - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y25" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I25,D25,"_1.jpg;"),CONCATENATE(I25,D25,"_2.jpg;"),CONCATENATE(I25,D25,"_3.jpg;"),CONCATENATE(I25,D25,"_4.jpg;"),CONCATENATE(I25,D25,"_5.jpg;"),CONCATENATE(I25,D25,"_6.jpg;"),CONCATENATE(I25,D25,"_7.jpg;"),CONCATENATE(I25,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z25" s="13" t="str">
+        <f aca="false">CONCATENATE(I25,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="0" t="str">
+        <f aca="false">B25</f>
+        <v>Термонаклейка Черепаха Цветы на панцире</v>
+      </c>
+      <c r="AC25" s="0" t="str">
+        <f aca="false">B25</f>
+        <v>Термонаклейка Черепаха Цветы на панцире</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <f aca="false">Q25</f>
+        <v>349</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <f aca="false">ROUND(AD25*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
+        <f aca="false">W25</f>
+        <v>10</v>
+      </c>
+      <c r="AK25" s="15" t="n">
+        <f aca="false">V25*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL25" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="15" t="n">
+        <f aca="false">U25*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN25" s="17" t="str">
+        <f aca="false">CONCATENATE(I25,D25,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_1.jpg</v>
+      </c>
+      <c r="AO25" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I25, D25, "_2.jpg;"),CONCATENATE(I25, D25, "_3.jpg;"),CONCATENATE(I25, D25, "_4.jpg;"),CONCATENATE(I25, D25, "_5.jpg;"),CONCATENATE(I25, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR25" s="17" t="str">
+        <f aca="false">K25</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B25,"Термонаклейка ","")</f>
+        <v>Черепаха Цветы на панцире</v>
+      </c>
+      <c r="AW25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX25" s="0" t="str">
+        <f aca="false">S25</f>
+        <v>Термонаклейка Черепаха Цветы на панцире - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ25" s="15" t="str">
+        <f aca="false">X25</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC25" s="15" t="str">
+        <f aca="false">R25</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="18" t="str">
+        <f aca="false">CONCATENATE(I25,D25,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/turtle_t1_horiz_color.jpg</v>
+      </c>
+      <c r="BO25" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B25,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Черепаха Цветы на панцире</v>
+      </c>
+      <c r="BT25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU25" s="20" t="str">
+        <f aca="false">CONCATENATE(I25,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B26, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка и 2 ласточки.pdf</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D26,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\two_birds_face_girl_eyes1_vert.tif</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="0" t="str">
+        <f aca="false">B26</f>
+        <v>Термонаклейка Девушка и 2 ласточки</v>
+      </c>
+      <c r="P26" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B26, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка и 2 ласточки</v>
+      </c>
+      <c r="Q26" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" s="11" t="str">
+        <f aca="false">B26&amp;Описание!B31</f>
+        <v>Термонаклейка Девушка и 2 ласточки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I26,D26,"_1.jpg;"),CONCATENATE(I26,D26,"_2.jpg;"),CONCATENATE(I26,D26,"_3.jpg;"),CONCATENATE(I26,D26,"_4.jpg;"),CONCATENATE(I26,D26,"_5.jpg;"),CONCATENATE(I26,D26,"_6.jpg;"),CONCATENATE(I26,D26,"_7.jpg;"),CONCATENATE(I26,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z26" s="13" t="str">
+        <f aca="false">CONCATENATE(I26,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="0" t="str">
+        <f aca="false">B26</f>
+        <v>Термонаклейка Девушка и 2 ласточки</v>
+      </c>
+      <c r="AC26" s="0" t="str">
+        <f aca="false">B26</f>
+        <v>Термонаклейка Девушка и 2 ласточки</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <f aca="false">Q26</f>
+        <v>349</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <f aca="false">ROUND(AD26*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
+        <f aca="false">W26</f>
+        <v>10</v>
+      </c>
+      <c r="AK26" s="15" t="n">
+        <f aca="false">V26*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL26" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="15" t="n">
+        <f aca="false">U26*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN26" s="17" t="str">
+        <f aca="false">CONCATENATE(I26,D26,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_1.jpg</v>
+      </c>
+      <c r="AO26" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I26, D26, "_2.jpg;"),CONCATENATE(I26, D26, "_3.jpg;"),CONCATENATE(I26, D26, "_4.jpg;"),CONCATENATE(I26, D26, "_5.jpg;"),CONCATENATE(I26, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR26" s="17" t="str">
+        <f aca="false">K26</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B26,"Термонаклейка ","")</f>
+        <v>Девушка и 2 ласточки</v>
+      </c>
+      <c r="AW26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX26" s="0" t="str">
+        <f aca="false">S26</f>
+        <v>Термонаклейка Девушка и 2 ласточки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ26" s="15" t="str">
+        <f aca="false">X26</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC26" s="15" t="str">
+        <f aca="false">R26</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="18" t="str">
+        <f aca="false">CONCATENATE(I26,D26,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/two_birds_face_girl_eyes1_vert_color.jpg</v>
+      </c>
+      <c r="BO26" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B26,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка и 2 ласточки</v>
+      </c>
+      <c r="BT26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU26" s="20" t="str">
+        <f aca="false">CONCATENATE(I26,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B27, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кит в Цветах.pdf</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\",[1]username!B#REF!,"\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\",D27,".tif")</f>
+        <v>C:\Users\\Documents\GitHub\Ozon_upload\DTF_images\tatyana\A4\set4\whale2_vert1.tif</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="0" t="str">
+        <f aca="false">B27</f>
+        <v>Термонаклейка Кит в Цветах</v>
+      </c>
+      <c r="P27" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(B27, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кит в Цветах</v>
+      </c>
+      <c r="Q27" s="11" t="n">
+        <v>349</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" s="11" t="str">
+        <f aca="false">B27&amp;Описание!B32</f>
+        <v>Термонаклейка Кит в Цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I27,D27,"_1.jpg;"),CONCATENATE(I27,D27,"_2.jpg;"),CONCATENATE(I27,D27,"_3.jpg;"),CONCATENATE(I27,D27,"_4.jpg;"),CONCATENATE(I27,D27,"_5.jpg;"),CONCATENATE(I27,D27,"_6.jpg;"),CONCATENATE(I27,D27,"_7.jpg;"),CONCATENATE(I27,"instruction_A4.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="Z27" s="13" t="str">
+        <f aca="false">CONCATENATE(I27,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="0" t="str">
+        <f aca="false">B27</f>
+        <v>Термонаклейка Кит в Цветах</v>
+      </c>
+      <c r="AC27" s="0" t="str">
+        <f aca="false">B27</f>
+        <v>Термонаклейка Кит в Цветах</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <f aca="false">Q27</f>
+        <v>349</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <f aca="false">ROUND(AD27*1.5,0)</f>
+        <v>524</v>
+      </c>
+      <c r="AF27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ27" s="0" t="n">
+        <f aca="false">W27</f>
+        <v>10</v>
+      </c>
+      <c r="AK27" s="15" t="n">
+        <f aca="false">V27*10</f>
+        <v>210</v>
+      </c>
+      <c r="AL27" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="15" t="n">
+        <f aca="false">U27*10</f>
+        <v>300</v>
+      </c>
+      <c r="AN27" s="17" t="str">
+        <f aca="false">CONCATENATE(I27,D27,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_1.jpg</v>
+      </c>
+      <c r="AO27" s="18" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(I27, D27, "_2.jpg;"),CONCATENATE(I27, D27, "_3.jpg;"),CONCATENATE(I27, D27, "_4.jpg;"),CONCATENATE(I27, D27, "_5.jpg;"),CONCATENATE(I27, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AR27" s="17" t="str">
+        <f aca="false">K27</f>
+        <v>Amazing Pics</v>
+      </c>
+      <c r="AS27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="0" t="str">
+        <f aca="false">SUBSTITUTE(B27,"Термонаклейка ","")</f>
+        <v>Кит в Цветах</v>
+      </c>
+      <c r="AW27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX27" s="0" t="str">
+        <f aca="false">S27</f>
+        <v>Термонаклейка Кит в Цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</v>
+      </c>
+      <c r="AZ27" s="15" t="str">
+        <f aca="false">X27</f>
+        <v>Россия</v>
+      </c>
+      <c r="BC27" s="15" t="str">
+        <f aca="false">R27</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BE27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="18" t="str">
+        <f aca="false">CONCATENATE(I27,D27,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/whale2_vert1_color.jpg</v>
+      </c>
+      <c r="BO27" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(B27,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кит в Цветах</v>
+      </c>
+      <c r="BT27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU27" s="20" t="str">
+        <f aca="false">CONCATENATE(I27,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="21"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="21"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="21"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="21"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="21"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="21"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="21"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="21"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="21"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="21"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="21"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AZ2:BA2 AX3:AY5" type="decimal">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BA2:BB27" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2 AC3:AC5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF2:AF27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2 AD3:AD5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AG2:AG27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AS2 BC2 BI2 BP2 AQ3:AQ5 BA3:BA5 BG3:BG5 BN3:BN5" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AT2:AT27 BD2:BD27 BJ2:BJ27 BQ2:BQ27" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AK2 AI3:AI5" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AL2:AL27" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AT2 AR3:AR5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AU2:AU27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AV2 AT3:AT5" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AW2:AW27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AY2 AW3:AW5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AZ2:AZ27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BB2 AZ3:AZ5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BC2:BC27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BD2 BB3:BB5" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BE2:BE27" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BE2 BC3:BC5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2:BF27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BG2 BE3:BE5" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BH2:BH27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2 BH3:BH5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2:BK27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2 BI3:BI5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2:BL27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2 BJ3:BJ5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BM2:BM27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BM2 BK3:BK5" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BN2:BN27" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I3" r:id="rId3" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I4" r:id="rId4" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I5" r:id="rId5" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I6" r:id="rId6" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I7" r:id="rId7" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I8" r:id="rId8" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I9" r:id="rId9" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I10" r:id="rId10" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I11" r:id="rId11" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I12" r:id="rId12" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I13" r:id="rId13" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I14" r:id="rId14" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I15" r:id="rId15" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I16" r:id="rId16" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I17" r:id="rId17" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I18" r:id="rId18" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I19" r:id="rId19" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I20" r:id="rId20" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I21" r:id="rId21" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I22" r:id="rId22" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I23" r:id="rId23" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I24" r:id="rId24" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I25" r:id="rId25" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I26" r:id="rId26" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
+    <hyperlink ref="I27" r:id="rId27" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2650,7 +7009,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -2674,1019 +7033,1019 @@
   <sheetData>
     <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="11" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
